--- a/tecnica_analise/999XL.xlsx
+++ b/tecnica_analise/999XL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>MONTH</t>
   </si>
@@ -187,64 +187,37 @@
     <t>live half</t>
   </si>
   <si>
-    <t>Verona vs Monza</t>
+    <t>ITALIA SERIA</t>
   </si>
   <si>
-    <t>ITALIA SERIE A</t>
+    <t>Frosinone Calcio vs Empoli</t>
   </si>
   <si>
-    <t>FRANCE LIGUE 1</t>
-  </si>
-  <si>
-    <t>Lyonnais vs Metz</t>
-  </si>
-  <si>
-    <t>Hansa vs Hertha</t>
-  </si>
-  <si>
-    <t>BUNDESLIGA 2</t>
-  </si>
-  <si>
-    <t>Hannover vs Eintrach</t>
-  </si>
-  <si>
-    <t>Potenza vs Catania</t>
+    <t>Rimini vs Spal</t>
   </si>
   <si>
     <t>ITALIA SERIE C</t>
   </si>
   <si>
-    <t>Carrarese vs Pescara</t>
+    <t>Recanatese vs Sestri</t>
   </si>
   <si>
-    <t>Racing Ferrol vs Andorra</t>
+    <t>Pineto vs Fermana</t>
   </si>
   <si>
-    <t>Deportivo Alaves vs Almeria</t>
+    <t>Monopoli vs Audace</t>
+  </si>
+  <si>
+    <t>Getafe vs Cadiz</t>
   </si>
   <si>
     <t>LA LIGA</t>
   </si>
   <si>
-    <t>Luton vs Liverpool</t>
-  </si>
-  <si>
-    <t>PREMIER LEAGUE</t>
-  </si>
-  <si>
-    <t>Roma vs Lecce</t>
-  </si>
-  <si>
-    <t>Cartagena vs Leganes</t>
+    <t>Real Zaragoza vs Real Oviedo</t>
   </si>
   <si>
     <t>LA LIGA 2</t>
-  </si>
-  <si>
-    <t>Ancona vs Perugia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiorentina vs Juventus </t>
   </si>
 </sst>
 </file>
@@ -755,25 +728,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,24 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,13 +788,31 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,19 +833,16 @@
     <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,27 +851,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1182,7 +1135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1239,43 +1191,43 @@
                 <c:formatCode>_-[$AOA]\ * #,##0.00_-;\-[$AOA]\ * #,##0.00_-;_-[$AOA]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1303,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="206807016"/>
-        <c:axId val="206808976"/>
+        <c:axId val="140677072"/>
+        <c:axId val="140679032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206807016"/>
+        <c:axId val="140677072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1302,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206808976"/>
+        <c:crossAx val="140679032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1358,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206808976"/>
+        <c:axId val="140679032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1361,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206807016"/>
+        <c:crossAx val="140677072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,7 +1456,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1616,43 +1567,43 @@
                 <c:formatCode>_-[$AOA]\ * #,##0.00_-;\-[$AOA]\ * #,##0.00_-;_-[$AOA]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31800</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1679,11 +1630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206810544"/>
-        <c:axId val="206807408"/>
+        <c:axId val="140678640"/>
+        <c:axId val="140679424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206810544"/>
+        <c:axId val="140678640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,12 +1687,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206807408"/>
+        <c:crossAx val="140679424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206807408"/>
+        <c:axId val="140679424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1746,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206810544"/>
+        <c:crossAx val="140678640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2044,11 +1995,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="265410096"/>
-        <c:axId val="265411272"/>
+        <c:axId val="268695392"/>
+        <c:axId val="268696568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265410096"/>
+        <c:axId val="268695392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2042,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265411272"/>
+        <c:crossAx val="268696568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2099,7 +2050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265411272"/>
+        <c:axId val="268696568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2101,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265410096"/>
+        <c:crossAx val="268695392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2404,11 +2355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265412056"/>
-        <c:axId val="265408528"/>
+        <c:axId val="268696176"/>
+        <c:axId val="268693824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265412056"/>
+        <c:axId val="268696176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,12 +2412,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265408528"/>
+        <c:crossAx val="268693824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265408528"/>
+        <c:axId val="268693824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2471,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265412056"/>
+        <c:crossAx val="268696176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5380,7 +5331,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5393,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -5571,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
@@ -5583,7 +5534,7 @@
       </c>
       <c r="B18" s="2">
         <f>B17+B3+(B17*C17)</f>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
@@ -5595,7 +5546,7 @@
       </c>
       <c r="B19" s="2">
         <f>B18+B4+(B18*C18)</f>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -5607,7 +5558,7 @@
       </c>
       <c r="B20" s="2">
         <f>B19+B5+(B19*C19)</f>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
@@ -5619,7 +5570,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ref="B21:B29" si="0">B20+B6+(B20*C20)</f>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>
@@ -5631,7 +5582,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C22" s="9">
         <v>0</v>
@@ -5643,7 +5594,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
@@ -5655,7 +5606,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
@@ -5667,7 +5618,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C25" s="9">
         <v>0</v>
@@ -5679,7 +5630,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C26" s="9">
         <v>0</v>
@@ -5691,7 +5642,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C27" s="9">
         <v>0</v>
@@ -5703,7 +5654,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C28" s="9">
         <v>0</v>
@@ -5715,7 +5666,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>15000</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -5792,8 +5743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,7 +5800,7 @@
       </c>
       <c r="L1" s="18">
         <f>painel!B19</f>
-        <v>31800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5865,35 +5816,35 @@
         <v>0</v>
       </c>
       <c r="D2" s="14">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="17">
         <f>IFERROR(VLOOKUP(F2,N$29:Q$37,4,FALSE),0)</f>
-        <v>636</v>
+        <v>300</v>
       </c>
       <c r="H2" s="20">
-        <v>2.7</v>
+        <v>1.77</v>
       </c>
       <c r="I2" s="17">
-        <f>IFERROR(H2*G2, 0)</f>
-        <v>1717.2</v>
+        <f t="shared" ref="I2:I16" si="0">IFERROR(H2*G2, 0)</f>
+        <v>531</v>
       </c>
       <c r="J2" s="17">
-        <f>IFERROR(I2-G2, 0)</f>
-        <v>1081.2</v>
+        <f t="shared" ref="J2:J16" si="1">IFERROR(I2-G2, 0)</f>
+        <v>231</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="18">
         <f>L1+J2</f>
-        <v>32881.199999999997</v>
+        <v>15231</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5901,42 +5852,42 @@
         <v>45227</v>
       </c>
       <c r="B3" s="17">
-        <f t="shared" ref="B3:B66" si="0">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
+        <f t="shared" ref="B3:B66" si="2">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
         <v>0</v>
       </c>
       <c r="C3" s="19">
-        <f t="shared" ref="C3:C66" si="1">B3/L$1</f>
+        <f t="shared" ref="C3:C66" si="3">B3/L$1</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G16" si="4">IFERROR(VLOOKUP(F3,N$29:Q$37,4,FALSE),0)</f>
+        <v>300</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1.82</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="17">
-        <f t="shared" ref="G3:G66" si="2">IFERROR(VLOOKUP(F3,N$29:Q$37,4,FALSE),0)</f>
-        <v>636</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1.85</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17">
-        <f t="shared" ref="J3:J66" si="3">IFERROR(I3-G3, 0)</f>
-        <v>-636</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L66" si="4">L2+J3</f>
-        <v>32245.199999999997</v>
+        <f t="shared" ref="L3:L66" si="5">L2+J3</f>
+        <v>14931</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5944,42 +5895,43 @@
         <v>45228</v>
       </c>
       <c r="B4" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="H4" s="20">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="I4" s="17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>552</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
+        <f t="shared" si="1"/>
+        <v>252</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" s="18">
-        <f t="shared" si="4"/>
-        <v>31609.199999999997</v>
+        <f t="shared" si="5"/>
+        <v>15183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5987,43 +5939,42 @@
         <v>45229</v>
       </c>
       <c r="B5" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C5" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45236</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.72</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.95</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" ref="I3:I66" si="5">IFERROR(H5*G5, 0)</f>
-        <v>1240.2</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="3"/>
-        <v>604.20000000000005</v>
+        <v>-300</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L5" s="18">
-        <f t="shared" si="4"/>
-        <v>32213.399999999998</v>
+        <f t="shared" si="5"/>
+        <v>14883</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6031,43 +5982,43 @@
         <v>45230</v>
       </c>
       <c r="B6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45236</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I6" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H6" s="20">
-        <v>1.77</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="5"/>
-        <v>1125.72</v>
+        <v>621</v>
       </c>
       <c r="J6" s="17">
         <f>IFERROR((I6-G6)/2, 0)</f>
-        <v>244.86</v>
+        <v>160.5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" si="4"/>
-        <v>32458.26</v>
+        <f t="shared" si="5"/>
+        <v>15043.5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6075,43 +6026,42 @@
         <v>45231</v>
       </c>
       <c r="B7" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C7" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>45236</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.95</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="5"/>
-        <v>1081.2</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" ref="J7:J8" si="6">IFERROR((I7-G7)/2, 0)</f>
-        <v>222.60000000000002</v>
+        <v>-300</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="4"/>
-        <v>32680.859999999997</v>
+        <f t="shared" si="5"/>
+        <v>14743.5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6119,43 +6069,43 @@
         <v>45232</v>
       </c>
       <c r="B8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="H8" s="20">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="I8" s="17">
-        <f t="shared" si="5"/>
-        <v>1259.28</v>
+        <f t="shared" si="0"/>
+        <v>630</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="6"/>
-        <v>311.64</v>
+        <f t="shared" si="1"/>
+        <v>330</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="4"/>
-        <v>32992.5</v>
+        <f t="shared" si="5"/>
+        <v>15073.5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6163,42 +6113,42 @@
         <v>45233</v>
       </c>
       <c r="B9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="H9" s="20">
-        <v>1.94</v>
+        <v>4.2</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
+        <f t="shared" si="1"/>
+        <v>-300</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="4"/>
-        <v>32356.5</v>
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6206,42 +6156,30 @@
         <v>45234</v>
       </c>
       <c r="B10" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="G10" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="19">
+      <c r="J10" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H10" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L10" s="18">
-        <f t="shared" si="4"/>
-        <v>31720.5</v>
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6249,42 +6187,30 @@
         <v>45235</v>
       </c>
       <c r="B11" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="G11" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17">
         <f t="shared" si="0"/>
-        <v>-2877.9</v>
-      </c>
-      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
         <f t="shared" si="1"/>
-        <v>-9.0499999999999997E-2</v>
-      </c>
-      <c r="D11" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H11" s="20">
-        <v>2.02</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="4"/>
-        <v>31084.5</v>
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6292,42 +6218,30 @@
         <v>45236</v>
       </c>
       <c r="B12" s="17">
+        <f t="shared" si="2"/>
+        <v>-226.5</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="3"/>
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="G12" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="J12" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D12" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1.75</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L12" s="18">
-        <f t="shared" si="4"/>
-        <v>30448.5</v>
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6335,42 +6249,30 @@
         <v>45237</v>
       </c>
       <c r="B13" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="G13" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="J13" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D13" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H13" s="20">
-        <v>2.48</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="L13" s="18">
-        <f t="shared" si="4"/>
-        <v>29812.5</v>
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6378,43 +6280,30 @@
         <v>45238</v>
       </c>
       <c r="B14" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="G14" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="J14" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="L14" s="18">
         <f t="shared" si="5"/>
-        <v>1017.6</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="3"/>
-        <v>381.6</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="4"/>
-        <v>30194.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6422,42 +6311,30 @@
         <v>45239</v>
       </c>
       <c r="B15" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="G15" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="J15" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1.75</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="L15" s="18">
-        <f t="shared" si="4"/>
-        <v>29558.1</v>
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -6465,486 +6342,474 @@
         <v>45240</v>
       </c>
       <c r="B16" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="G16" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="19">
+      <c r="J16" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="14">
-        <v>45235</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
-      <c r="H16" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="3"/>
-        <v>-636</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L16" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N16" s="56" t="s">
+        <f t="shared" si="5"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N16" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45241</v>
       </c>
       <c r="B17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D17" s="14"/>
       <c r="G17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G17:G66" si="6">IFERROR(VLOOKUP(F17,N$29:Q$37,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="17">
+        <f t="shared" ref="I17:I66" si="7">IFERROR(H17*G17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" ref="J17:J66" si="8">IFERROR(I17-G17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N17" s="38" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60" t="s">
+      <c r="O17" s="60"/>
+      <c r="P17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45242</v>
       </c>
       <c r="B18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D18" s="14"/>
       <c r="G18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N18" s="47">
+        <v>14773.5</v>
+      </c>
+      <c r="N18" s="42">
         <f>painel!B19</f>
-        <v>31800</v>
-      </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="63">
+        <v>15000</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18" s="64">
         <f>N18+SUM(J:J)</f>
-        <v>28922.1</v>
-      </c>
-      <c r="Q18" s="49"/>
+        <v>14773.5</v>
+      </c>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45243</v>
       </c>
       <c r="B19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D19" s="14"/>
       <c r="G19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="55"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N19" s="48"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45244</v>
       </c>
       <c r="B20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D20" s="14"/>
       <c r="G20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N20" s="38" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>45245</v>
       </c>
       <c r="B21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D21" s="14"/>
       <c r="G21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N21" s="47">
+        <v>14773.5</v>
+      </c>
+      <c r="N21" s="42">
         <f>SUM(P18-N18)</f>
-        <v>-2877.9000000000015</v>
-      </c>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
+        <v>-226.5</v>
+      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45246</v>
       </c>
       <c r="B22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45247</v>
       </c>
       <c r="B23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N23" s="48"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45248</v>
       </c>
       <c r="B24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N24" s="38" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45249</v>
       </c>
       <c r="B25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D25" s="14"/>
       <c r="G25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N25" s="38" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N25" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45250</v>
       </c>
       <c r="B26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D26" s="14"/>
       <c r="G26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N26" s="41">
+        <v>14773.5</v>
+      </c>
+      <c r="N26" s="51">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>-9.0500000000000053E-2</v>
-      </c>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="53"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>45251</v>
       </c>
       <c r="B27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D27" s="14"/>
       <c r="G27" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>45252</v>
       </c>
       <c r="B28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
@@ -6956,72 +6821,72 @@
         <v>45253</v>
       </c>
       <c r="B29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D29" s="14"/>
       <c r="G29" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N29" s="34" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N29" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
-      <c r="Q29" s="35"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>45254</v>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D30" s="14"/>
       <c r="G30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N30" s="34" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N30" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="35"/>
+      <c r="O30" s="38"/>
       <c r="P30" s="23" t="s">
         <v>37</v>
       </c>
@@ -7034,41 +6899,41 @@
         <v>45255</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D31" s="14"/>
       <c r="G31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N31" s="32" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="33"/>
+      <c r="O31" s="32"/>
       <c r="P31" s="28">
         <v>4</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" ref="Q31:Q37" si="7">P31*N$18/100</f>
-        <v>1272</v>
+        <f t="shared" ref="Q31:Q37" si="9">P31*N$18/100</f>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7076,41 +6941,41 @@
         <v>45256</v>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D32" s="14"/>
       <c r="G32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N32" s="32" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N32" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="28">
         <v>4</v>
       </c>
       <c r="Q32" s="26">
-        <f t="shared" si="7"/>
-        <v>1272</v>
+        <f t="shared" si="9"/>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7118,41 +6983,41 @@
         <v>45257</v>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D33" s="14"/>
       <c r="G33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N33" s="32" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N33" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="33"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="28">
         <v>4</v>
       </c>
       <c r="Q33" s="26">
-        <f t="shared" si="7"/>
-        <v>1272</v>
+        <f t="shared" si="9"/>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7160,41 +7025,41 @@
         <v>45258</v>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" s="14"/>
       <c r="G34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N34" s="32" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="28">
         <v>1.8</v>
       </c>
       <c r="Q34" s="26">
-        <f t="shared" si="7"/>
-        <v>572.4</v>
+        <f t="shared" si="9"/>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7202,41 +7067,41 @@
         <v>45259</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
       <c r="G35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N35" s="32" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="33"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="28">
         <v>2.8</v>
       </c>
       <c r="Q35" s="26">
-        <f t="shared" si="7"/>
-        <v>890.4</v>
+        <f t="shared" si="9"/>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7244,41 +7109,41 @@
         <v>45260</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D36" s="14"/>
       <c r="G36" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="27">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N36" s="32" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="36"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="25">
         <v>2</v>
       </c>
       <c r="Q36" s="26">
-        <f t="shared" si="7"/>
-        <v>636</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7286,41 +7151,41 @@
         <v>45261</v>
       </c>
       <c r="B37" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D37" s="14"/>
       <c r="G37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L37" s="18">
         <f>L36+J37</f>
-        <v>28922.1</v>
-      </c>
-      <c r="N37" s="31" t="s">
+        <v>14773.5</v>
+      </c>
+      <c r="N37" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O37" s="31"/>
+      <c r="O37" s="69"/>
       <c r="P37" s="25">
         <v>2</v>
       </c>
       <c r="Q37" s="26">
-        <f t="shared" si="7"/>
-        <v>636</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7328,438 +7193,438 @@
         <v>45262</v>
       </c>
       <c r="B38" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D38" s="14"/>
       <c r="G38" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N38" s="65"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="67"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N38" s="57"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="59"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>45263</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="40"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N39" s="39"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="41"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>45264</v>
       </c>
       <c r="B40" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N40" s="47"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="49"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N40" s="42"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="44"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>45265</v>
       </c>
       <c r="B41" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="55"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N41" s="48"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="50"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>45266</v>
       </c>
       <c r="B42" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C42" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="40"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N42" s="39"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>45267</v>
       </c>
       <c r="B43" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C43" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="49"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N43" s="42"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="44"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>45268</v>
       </c>
       <c r="B44" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C44" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N44" s="50"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="52"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N44" s="45"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="47"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>45269</v>
       </c>
       <c r="B45" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C45" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N45" s="53"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="55"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N45" s="48"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="50"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45270</v>
       </c>
       <c r="B46" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C46" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="40"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N46" s="39"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="41"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>45271</v>
       </c>
       <c r="B47" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="40"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N47" s="39"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="41"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>45272</v>
       </c>
       <c r="B48" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N48" s="41"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="43"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="53"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>45273</v>
       </c>
       <c r="B49" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C49" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N49" s="44"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="46"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="56"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>45274</v>
       </c>
       <c r="B50" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C50" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
@@ -7771,66 +7636,66 @@
         <v>45275</v>
       </c>
       <c r="B51" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C51" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N51" s="34"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N51" s="36"/>
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
-      <c r="Q51" s="35"/>
+      <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>45276</v>
       </c>
       <c r="B52" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C52" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N52" s="34"/>
-      <c r="O52" s="35"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N52" s="36"/>
+      <c r="O52" s="38"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="24"/>
     </row>
@@ -7839,32 +7704,32 @@
         <v>45277</v>
       </c>
       <c r="B53" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N53" s="32"/>
-      <c r="O53" s="33"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="26"/>
     </row>
@@ -7873,32 +7738,32 @@
         <v>45278</v>
       </c>
       <c r="B54" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N54" s="31"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="25"/>
       <c r="Q54" s="26"/>
     </row>
@@ -7907,32 +7772,32 @@
         <v>45279</v>
       </c>
       <c r="B55" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="33"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N55" s="31"/>
+      <c r="O55" s="32"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="26"/>
     </row>
@@ -7941,32 +7806,32 @@
         <v>45280</v>
       </c>
       <c r="B56" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N56" s="32"/>
-      <c r="O56" s="33"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N56" s="31"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="26"/>
     </row>
@@ -7975,32 +7840,32 @@
         <v>45281</v>
       </c>
       <c r="B57" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N57" s="32"/>
-      <c r="O57" s="33"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="25"/>
       <c r="Q57" s="26"/>
     </row>
@@ -8009,32 +7874,32 @@
         <v>45282</v>
       </c>
       <c r="B58" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N58" s="32"/>
-      <c r="O58" s="36"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N58" s="31"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="26"/>
     </row>
@@ -8043,32 +7908,32 @@
         <v>45283</v>
       </c>
       <c r="B59" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
-      </c>
-      <c r="N59" s="68"/>
-      <c r="O59" s="69"/>
+        <v>14773.5</v>
+      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="35"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
@@ -8077,29 +7942,29 @@
         <v>45284</v>
       </c>
       <c r="B60" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8107,29 +7972,29 @@
         <v>45285</v>
       </c>
       <c r="B61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8137,29 +8002,29 @@
         <v>45286</v>
       </c>
       <c r="B62" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8167,29 +8032,29 @@
         <v>45287</v>
       </c>
       <c r="B63" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8197,29 +8062,29 @@
         <v>45288</v>
       </c>
       <c r="B64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -8227,29 +8092,29 @@
         <v>45289</v>
       </c>
       <c r="B65" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -8257,29 +8122,29 @@
         <v>45290</v>
       </c>
       <c r="B66" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H66" s="20"/>
       <c r="I66" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="18">
-        <f t="shared" si="4"/>
-        <v>28922.1</v>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -8287,29 +8152,29 @@
         <v>45291</v>
       </c>
       <c r="B67" s="17">
-        <f t="shared" ref="B67:B98" si="8">SUMIF(D$2:D$67,A67,J$2:J$67)</f>
+        <f t="shared" ref="B67:B98" si="10">SUMIF(D$2:D$67,A67,J$2:J$67)</f>
         <v>0</v>
       </c>
       <c r="C67" s="19">
-        <f t="shared" ref="C67:C98" si="9">B67/L$1</f>
+        <f t="shared" ref="C67:C98" si="11">B67/L$1</f>
         <v>0</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" ref="G67:G98" si="10">IFERROR(VLOOKUP(F67,N$29:Q$37,4,FALSE),0)</f>
+        <f t="shared" ref="G67:G98" si="12">IFERROR(VLOOKUP(F67,N$29:Q$37,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="20"/>
       <c r="I67" s="17">
-        <f t="shared" ref="I67:I98" si="11">IFERROR(H67*G67, 0)</f>
+        <f t="shared" ref="I67:I98" si="13">IFERROR(H67*G67, 0)</f>
         <v>0</v>
       </c>
       <c r="J67" s="17">
-        <f t="shared" ref="J67:J98" si="12">IFERROR(I67-G67, 0)</f>
+        <f t="shared" ref="J67:J98" si="14">IFERROR(I67-G67, 0)</f>
         <v>0</v>
       </c>
       <c r="L67" s="18">
-        <f t="shared" ref="L67:L98" si="13">L66+J67</f>
-        <v>28922.1</v>
+        <f t="shared" ref="L67:L98" si="15">L66+J67</f>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -8317,28 +8182,28 @@
         <v>45292</v>
       </c>
       <c r="B68" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C68" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I68" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J68" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L68" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -8346,28 +8211,28 @@
         <v>45293</v>
       </c>
       <c r="B69" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C69" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I69" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J69" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L69" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -8375,28 +8240,28 @@
         <v>45294</v>
       </c>
       <c r="B70" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C70" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I70" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J70" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L70" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -8404,28 +8269,28 @@
         <v>45295</v>
       </c>
       <c r="B71" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C71" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I71" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J71" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L71" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -8433,28 +8298,28 @@
         <v>45296</v>
       </c>
       <c r="B72" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C72" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I72" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J72" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L72" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -8462,28 +8327,28 @@
         <v>45297</v>
       </c>
       <c r="B73" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C73" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I73" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J73" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L73" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -8491,28 +8356,28 @@
         <v>45298</v>
       </c>
       <c r="B74" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C74" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I74" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L74" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -8520,28 +8385,28 @@
         <v>45299</v>
       </c>
       <c r="B75" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C75" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I75" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J75" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L75" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -8549,28 +8414,28 @@
         <v>45300</v>
       </c>
       <c r="B76" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C76" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L76" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -8578,28 +8443,28 @@
         <v>45301</v>
       </c>
       <c r="B77" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C77" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I77" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J77" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L77" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -8607,28 +8472,28 @@
         <v>45302</v>
       </c>
       <c r="B78" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C78" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I78" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J78" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L78" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -8636,28 +8501,28 @@
         <v>45303</v>
       </c>
       <c r="B79" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C79" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I79" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J79" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L79" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -8665,28 +8530,28 @@
         <v>45304</v>
       </c>
       <c r="B80" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C80" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I80" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J80" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L80" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -8694,28 +8559,28 @@
         <v>45305</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C81" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I81" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J81" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L81" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -8723,28 +8588,28 @@
         <v>45306</v>
       </c>
       <c r="B82" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C82" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I82" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J82" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L82" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -8752,28 +8617,28 @@
         <v>45307</v>
       </c>
       <c r="B83" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C83" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I83" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J83" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L83" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -8781,28 +8646,28 @@
         <v>45308</v>
       </c>
       <c r="B84" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C84" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I84" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J84" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L84" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -8810,28 +8675,28 @@
         <v>45309</v>
       </c>
       <c r="B85" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C85" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I85" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J85" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L85" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -8839,28 +8704,28 @@
         <v>45310</v>
       </c>
       <c r="B86" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C86" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I86" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J86" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L86" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -8868,28 +8733,28 @@
         <v>45311</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C87" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I87" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J87" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L87" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -8897,28 +8762,28 @@
         <v>45312</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C88" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I88" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J88" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L88" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -8926,28 +8791,28 @@
         <v>45313</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C89" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I89" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J89" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L89" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -8955,28 +8820,28 @@
         <v>45314</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C90" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I90" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J90" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L90" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -8984,28 +8849,28 @@
         <v>45315</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C91" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I91" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J91" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L91" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9013,28 +8878,28 @@
         <v>45316</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I92" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J92" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L92" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -9042,28 +8907,28 @@
         <v>45317</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C93" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I93" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J93" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L93" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -9071,28 +8936,28 @@
         <v>45318</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C94" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I94" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J94" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L94" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -9100,28 +8965,28 @@
         <v>45319</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C95" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I95" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J95" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L95" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9129,28 +8994,28 @@
         <v>45320</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C96" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I96" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J96" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L96" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -9158,28 +9023,28 @@
         <v>45321</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C97" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I97" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J97" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L97" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -9187,32 +9052,61 @@
         <v>45322</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C98" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I98" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J98" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L98" s="18">
-        <f t="shared" si="13"/>
-        <v>28922.1</v>
+        <f t="shared" si="15"/>
+        <v>14773.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
     <mergeCell ref="N56:O56"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
@@ -9222,87 +9116,58 @@
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:P37">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:P37">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:P37">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9339,48 +9204,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9417,10 +9282,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J98">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/999XL.xlsx
+++ b/tecnica_analise/999XL.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="gastos" sheetId="1" r:id="rId1"/>
+    <sheet name="leagues" sheetId="6" r:id="rId1"/>
     <sheet name="painel" sheetId="3" r:id="rId2"/>
     <sheet name="InvestmentSport" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>MONTH</t>
   </si>
@@ -46,34 +46,7 @@
     <t>DAY</t>
   </si>
   <si>
-    <t>INVESTIMENT</t>
-  </si>
-  <si>
-    <t>GASTOS OPCIONAIS</t>
-  </si>
-  <si>
-    <t>GASTOS ESSENCIAIS</t>
-  </si>
-  <si>
-    <t>LAZER</t>
-  </si>
-  <si>
-    <t>ROUPAS</t>
-  </si>
-  <si>
-    <t>ACADEMIA</t>
-  </si>
-  <si>
-    <t>ETC…</t>
-  </si>
-  <si>
-    <t>COMIDA</t>
-  </si>
-  <si>
     <t>INVESTIMENTOS</t>
-  </si>
-  <si>
-    <t>ESTUDOS</t>
   </si>
   <si>
     <t>janeiro</t>
@@ -181,43 +154,55 @@
     <t xml:space="preserve"> PERCENTAGEM POR METODO</t>
   </si>
   <si>
+    <t>LA LIGA</t>
+  </si>
+  <si>
+    <t>LEAGUE PROFIT +</t>
+  </si>
+  <si>
+    <t>TOTAL DE ENTRADA</t>
+  </si>
+  <si>
+    <t>PROFIT/LOSS</t>
+  </si>
+  <si>
+    <t>CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>LEAGUE TWO</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE</t>
+  </si>
+  <si>
+    <t>LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA</t>
+  </si>
+  <si>
+    <t>ITALIA SERIE A</t>
+  </si>
+  <si>
+    <t>CHAMPION LEAGUE</t>
+  </si>
+  <si>
+    <t>FRANCE LIGUE 2</t>
+  </si>
+  <si>
+    <t>FRANCE LIGUE 1</t>
+  </si>
+  <si>
     <t>live</t>
   </si>
   <si>
-    <t>live half</t>
+    <t>BRAZIL SERIE A</t>
   </si>
   <si>
-    <t>ITALIA SERIA</t>
+    <t>USA MLS</t>
   </si>
   <si>
-    <t>Frosinone Calcio vs Empoli</t>
-  </si>
-  <si>
-    <t>Rimini vs Spal</t>
-  </si>
-  <si>
-    <t>ITALIA SERIE C</t>
-  </si>
-  <si>
-    <t>Recanatese vs Sestri</t>
-  </si>
-  <si>
-    <t>Pineto vs Fermana</t>
-  </si>
-  <si>
-    <t>Monopoli vs Audace</t>
-  </si>
-  <si>
-    <t>Getafe vs Cadiz</t>
-  </si>
-  <si>
-    <t>LA LIGA</t>
-  </si>
-  <si>
-    <t>Real Zaragoza vs Real Oviedo</t>
-  </si>
-  <si>
-    <t>LA LIGA 2</t>
+    <t>USA CHAMPIONSHIP</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     <numFmt numFmtId="168" formatCode="[$$ ]#,##0.00"/>
     <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +271,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF548135"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,8 +341,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFCF5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFCF5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -646,23 +717,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,10 +812,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,16 +845,65 @@
     <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,98 +930,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -851,7 +1020,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="59">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -869,6 +1038,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1074,6 +1263,265 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1082,8 +1530,124 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FFFCF5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Equipes-style 10" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 2" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 3" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 4" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 7" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF050BF9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1135,6 +1699,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1191,43 +1756,43 @@
                 <c:formatCode>_-[$AOA]\ * #,##0.00_-;\-[$AOA]\ * #,##0.00_-;_-[$AOA]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1255,11 +1820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="140677072"/>
-        <c:axId val="140679032"/>
+        <c:axId val="219066000"/>
+        <c:axId val="219066392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140677072"/>
+        <c:axId val="219066000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1867,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140679032"/>
+        <c:crossAx val="219066392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140679032"/>
+        <c:axId val="219066392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1926,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140677072"/>
+        <c:crossAx val="219066000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,6 +2021,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,43 +2133,43 @@
                 <c:formatCode>_-[$AOA]\ * #,##0.00_-;\-[$AOA]\ * #,##0.00_-;_-[$AOA]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1630,11 +2196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140678640"/>
-        <c:axId val="140679424"/>
+        <c:axId val="219064040"/>
+        <c:axId val="219064432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140678640"/>
+        <c:axId val="219064040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,12 +2253,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140679424"/>
+        <c:crossAx val="219064432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140679424"/>
+        <c:axId val="219064432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +2312,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140678640"/>
+        <c:crossAx val="219064040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1846,6 +2412,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1995,11 +2562,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="268695392"/>
-        <c:axId val="268696568"/>
+        <c:axId val="267875984"/>
+        <c:axId val="267875592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="268695392"/>
+        <c:axId val="267875984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2609,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268696568"/>
+        <c:crossAx val="267875592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2050,7 +2617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268696568"/>
+        <c:axId val="267875592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2668,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268695392"/>
+        <c:crossAx val="267875984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2196,6 +2763,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2355,11 +2923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268696176"/>
-        <c:axId val="268693824"/>
+        <c:axId val="267874024"/>
+        <c:axId val="267877160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268696176"/>
+        <c:axId val="267874024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,12 +2980,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268693824"/>
+        <c:crossAx val="267877160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268693824"/>
+        <c:axId val="267877160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +3039,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268696176"/>
+        <c:crossAx val="267874024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4824,6 +5392,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_23512" displayName="Table_23512" ref="C10:F10" headerRowCount="0" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="43">
+      <calculatedColumnFormula>COUNTIF(InvestmentSport!K:K,D10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="42"/>
+    <tableColumn id="3" name="Column3" dataDxfId="41">
+      <calculatedColumnFormula>SUMIF(InvestmentSport!K:K,D10,InvestmentSport!J:J)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="40" dataCellStyle="Percent">
+      <calculatedColumnFormula>E10/painel!B$17</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_33613" displayName="Table_33613" ref="C11:F11" headerRowCount="0" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="36">
+      <calculatedColumnFormula>COUNTIF(InvestmentSport!K:K,D11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="35"/>
+    <tableColumn id="3" name="Column3" dataDxfId="34">
+      <calculatedColumnFormula>SUMIF(InvestmentSport!K:K,D11,InvestmentSport!J:J)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="33" dataCellStyle="Percent">
+      <calculatedColumnFormula>E11/painel!B$17</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_43714" displayName="Table_43714" ref="C12:F16" headerRowCount="0" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="29">
+      <calculatedColumnFormula>COUNTIF(InvestmentSport!K:K,D12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="28"/>
+    <tableColumn id="3" name="Column3" dataDxfId="27">
+      <calculatedColumnFormula>SUMIF(InvestmentSport!K:K,D12,InvestmentSport!J:J)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="26" dataCellStyle="Percent">
+      <calculatedColumnFormula>E12/painel!B$17</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5089,254 +5711,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="C1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F4" sqref="F4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="F4" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="3">
-        <f>100000*50/100</f>
-        <v>50000</v>
-      </c>
-      <c r="F8" s="3">
-        <f>100000*30/100</f>
-        <v>30000</v>
-      </c>
-      <c r="G8" s="3">
-        <f>100000*20/100</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-    </row>
+    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D4,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="40">
+        <f>E4/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D5,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
+        <f>E5/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D6,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <f>E6/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D7,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <f>E7/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D8,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
+        <f>E8/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D9,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
+        <f>E9/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D10)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D10,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
+        <f>E10/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D11,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <f>E11/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D12,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
+        <f>E12/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D13,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="40">
+        <f>E13/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D14)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D14,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <f>E14/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D15,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="40">
+        <f>E15/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="32">
+        <f>COUNTIF(InvestmentSport!K:K,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="33">
+        <f>SUMIF(InvestmentSport!K:K,D16,InvestmentSport!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="40">
+        <f>E16/painel!B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E4:E16">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5356,28 +6005,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -5388,7 +6037,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5396,7 +6045,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5404,327 +6053,327 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="16">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="16">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="16">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
         <f>SUM(B3:B7)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="A16" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>15000</v>
-      </c>
-      <c r="C17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2">
         <f>B17+B3+(B17*C17)</f>
-        <v>15000</v>
-      </c>
-      <c r="C18" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2">
         <f>B18+B4+(B18*C18)</f>
-        <v>15000</v>
-      </c>
-      <c r="C19" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2">
         <f>B19+B5+(B19*C19)</f>
-        <v>15000</v>
-      </c>
-      <c r="C20" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
+      <c r="A21" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ref="B21:B29" si="0">B20+B6+(B20*C20)</f>
-        <v>15000</v>
-      </c>
-      <c r="C21" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>17</v>
+      <c r="A22" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C22" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>18</v>
+      <c r="A23" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C23" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>19</v>
+      <c r="A24" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C24" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>20</v>
+      <c r="A25" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C25" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>21</v>
+      <c r="A26" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C26" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
+      <c r="A27" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C27" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>23</v>
+      <c r="A28" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C28" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="C29" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>16</v>
+      <c r="A33" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="11">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <f>SUM(C17:C33)</f>
         <v>0</v>
       </c>
@@ -5743,9 +6392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5757,10 +6404,11 @@
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="13.7109375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="13" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="13" style="14" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="41" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5769,3311 +6417,3589 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="15">
+        <f>painel!B19</f>
+        <v>10000</v>
+      </c>
+      <c r="M1" s="41">
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>45226</v>
+      </c>
+      <c r="B2" s="14">
+        <f>SUMIF(D$2:D$67,A2,J$2:J$67)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <f t="shared" ref="C2:C33" si="0">B2/L$1</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="G2" s="14">
+        <f t="shared" ref="G2:G33" si="1">IFERROR(VLOOKUP(F2,N$29:Q$38,4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="14">
+        <f t="shared" ref="I2:I16" si="2">IFERROR(H2*G2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <f t="shared" ref="J2:J16" si="3">IFERROR(I2-G2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <f t="shared" ref="L2:L33" si="4">L1+J2</f>
+        <v>10000</v>
+      </c>
+      <c r="M2" s="41">
+        <f t="shared" ref="M2:M33" si="5">M1+J2</f>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>45227</v>
+      </c>
+      <c r="B3" s="14">
+        <f t="shared" ref="B3:B14" si="6">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="G3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M3" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>45228</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="G4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M4" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>45229</v>
+      </c>
+      <c r="B5" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="G5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M5" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="G6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>IFERROR((I6-G6)/2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M6" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>45231</v>
+      </c>
+      <c r="B7" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="G7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M7" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>45232</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M8" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45233</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M9" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>45234</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f>IFERROR((I10-G10)/2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M10" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>45235</v>
+      </c>
+      <c r="B11" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M11" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>45236</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M12" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>45237</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M13" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>45238</v>
+      </c>
+      <c r="B14" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>45239</v>
+      </c>
+      <c r="B15" s="14">
+        <f t="shared" ref="B15:B46" si="7">SUMIF(D$2:D$67,A15,J$2:J$67)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M15" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>45240</v>
+      </c>
+      <c r="B16" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M16" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N16" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>45241</v>
+      </c>
+      <c r="B17" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="14">
+        <f t="shared" ref="I17:I66" si="8">IFERROR(H17*G17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" ref="J17:J66" si="9">IFERROR(I17-G17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M17" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="71"/>
+      <c r="P17" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q17" s="55"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>45242</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M18" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N18" s="56">
+        <f>painel!B19</f>
+        <v>10000</v>
+      </c>
+      <c r="O18" s="73"/>
+      <c r="P18" s="75">
+        <f>N18+SUM(J:J)</f>
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="58"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>45243</v>
+      </c>
+      <c r="B19" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M19" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N19" s="62"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="64"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>45244</v>
+      </c>
+      <c r="B20" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M20" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>45245</v>
+      </c>
+      <c r="B21" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N21" s="56">
+        <f>SUM(P18-N18)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>45246</v>
+      </c>
+      <c r="B22" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M22" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>45247</v>
+      </c>
+      <c r="B23" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="G23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M23" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="64"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>45248</v>
+      </c>
+      <c r="B24" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="G24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M24" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>45249</v>
+      </c>
+      <c r="B25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="G25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M25" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N25" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>45250</v>
+      </c>
+      <c r="B26" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="G26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M26" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N26" s="65">
+        <f>IFERROR(N21/N18, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="67"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>45251</v>
+      </c>
+      <c r="B27" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="G27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M27" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N27" s="68"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="70"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>45252</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="G28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M28" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>45253</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="G29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M29" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N29" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="52"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>45254</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="G30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M30" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N30" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="O30" s="52"/>
+      <c r="P30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q30" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>45255</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="G31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M31" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="46"/>
+      <c r="P31" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="23">
+        <f t="shared" ref="Q31:Q36" si="10">P31*N$18/100</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>45256</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="G32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M32" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N32" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="O32" s="46"/>
+      <c r="P32" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="23">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>45257</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="G33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="M33" s="41">
+        <f t="shared" si="5"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="46"/>
+      <c r="P33" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="23">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>45258</v>
+      </c>
+      <c r="B34" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" ref="C34:C65" si="11">B34/L$1</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="G34" s="14">
+        <f t="shared" ref="G34:G65" si="12">IFERROR(VLOOKUP(F34,N$29:Q$38,4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" ref="L34:L65" si="13">L33+J34</f>
+        <v>10000</v>
+      </c>
+      <c r="M34" s="41">
+        <f t="shared" ref="M34:M65" si="14">M33+J34</f>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N34" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="46"/>
+      <c r="P34" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="Q34" s="23">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>45259</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="G35" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M35" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="18">
-        <f>painel!B19</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>45226</v>
-      </c>
-      <c r="B2" s="17">
-        <f>SUMIF(D$2:D$67,A2,J$2:J$67)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="19">
-        <f>B2/L$1</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="17">
-        <f>IFERROR(VLOOKUP(F2,N$29:Q$37,4,FALSE),0)</f>
-        <v>300</v>
-      </c>
-      <c r="H2" s="20">
-        <v>1.77</v>
-      </c>
-      <c r="I2" s="17">
-        <f t="shared" ref="I2:I16" si="0">IFERROR(H2*G2, 0)</f>
-        <v>531</v>
-      </c>
-      <c r="J2" s="17">
-        <f t="shared" ref="J2:J16" si="1">IFERROR(I2-G2, 0)</f>
-        <v>231</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="18">
-        <f>L1+J2</f>
-        <v>15231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>45227</v>
-      </c>
-      <c r="B3" s="17">
-        <f t="shared" ref="B3:B66" si="2">SUMIF(D$2:D$67,A3,J$2:J$67)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <f t="shared" ref="C3:C66" si="3">B3/L$1</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="O35" s="46"/>
+      <c r="P35" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="Q35" s="23">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B36" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="G36" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="24">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M36" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N36" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="17">
-        <f t="shared" ref="G3:G16" si="4">IFERROR(VLOOKUP(F3,N$29:Q$37,4,FALSE),0)</f>
-        <v>300</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1.82</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17">
-        <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" ref="L3:L66" si="5">L2+J3</f>
-        <v>14931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>45228</v>
-      </c>
-      <c r="B4" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="17">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1.84</v>
-      </c>
-      <c r="I4" s="17">
-        <f t="shared" si="0"/>
-        <v>552</v>
-      </c>
-      <c r="J4" s="17">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="5"/>
-        <v>15183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>45229</v>
-      </c>
-      <c r="B5" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.72</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="5"/>
-        <v>14883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>45230</v>
-      </c>
-      <c r="B6" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H6" s="20">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="0"/>
-        <v>621</v>
-      </c>
-      <c r="J6" s="17">
-        <f>IFERROR((I6-G6)/2, 0)</f>
-        <v>160.5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="5"/>
-        <v>15043.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>45231</v>
-      </c>
-      <c r="B7" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1.95</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="5"/>
-        <v>14743.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>45232</v>
-      </c>
-      <c r="B8" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H8" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="5"/>
-        <v>15073.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>45233</v>
-      </c>
-      <c r="B9" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>45236</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="17">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H9" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>45234</v>
-      </c>
-      <c r="B10" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="G10" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>45235</v>
-      </c>
-      <c r="B11" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="G11" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>45236</v>
-      </c>
-      <c r="B12" s="17">
-        <f t="shared" si="2"/>
-        <v>-226.5</v>
-      </c>
-      <c r="C12" s="19">
-        <f t="shared" si="3"/>
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="G12" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>45237</v>
-      </c>
-      <c r="B13" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="G13" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>45238</v>
-      </c>
-      <c r="B14" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="G14" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>45239</v>
-      </c>
-      <c r="B15" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="G15" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>45240</v>
-      </c>
-      <c r="B16" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="G16" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N16" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>45241</v>
-      </c>
-      <c r="B17" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="G17" s="17">
-        <f t="shared" ref="G17:G66" si="6">IFERROR(VLOOKUP(F17,N$29:Q$37,4,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="17">
-        <f t="shared" ref="I17:I66" si="7">IFERROR(H17*G17, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" ref="J17:J66" si="8">IFERROR(I17-G17, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="41"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>45242</v>
-      </c>
-      <c r="B18" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="G18" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="17">
+      <c r="O36" s="47"/>
+      <c r="P36" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="Q36" s="23">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>45261</v>
+      </c>
+      <c r="B37" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J18" s="17">
+      <c r="C37" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="G37" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L18" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N18" s="42">
-        <f>painel!B19</f>
-        <v>15000</v>
-      </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="64">
-        <f>N18+SUM(J:J)</f>
-        <v>14773.5</v>
-      </c>
-      <c r="Q18" s="44"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>45243</v>
-      </c>
-      <c r="B19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="G19" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="17">
+      <c r="J37" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M37" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="23"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>45262</v>
+      </c>
+      <c r="B38" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19" s="17">
+      <c r="C38" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="G38" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L19" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="50"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>45244</v>
-      </c>
-      <c r="B20" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="G20" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="17">
+      <c r="J38" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M38" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="23"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>45263</v>
+      </c>
+      <c r="B39" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="17">
+      <c r="C39" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L20" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>45245</v>
-      </c>
-      <c r="B21" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="G21" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="17">
+      <c r="J39" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M39" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N39" s="53"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="55"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>45264</v>
+      </c>
+      <c r="B40" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J21" s="17">
+      <c r="C40" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L21" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N21" s="42">
-        <f>SUM(P18-N18)</f>
-        <v>-226.5</v>
-      </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>45246</v>
-      </c>
-      <c r="B22" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="G22" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="17">
+      <c r="J40" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M40" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N40" s="56"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="58"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>45265</v>
+      </c>
+      <c r="B41" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J22" s="17">
+      <c r="C41" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L22" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>45247</v>
-      </c>
-      <c r="B23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="G23" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="17">
+      <c r="J41" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M41" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N41" s="62"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="64"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>45266</v>
+      </c>
+      <c r="B42" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J23" s="17">
+      <c r="C42" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L23" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="50"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>45248</v>
-      </c>
-      <c r="B24" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="G24" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="17">
+      <c r="J42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M42" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>45267</v>
+      </c>
+      <c r="B43" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J24" s="17">
+      <c r="C43" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L24" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>45249</v>
-      </c>
-      <c r="B25" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="G25" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="17">
+      <c r="J43" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M43" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N43" s="56"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="58"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>45268</v>
+      </c>
+      <c r="B44" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="17">
+      <c r="C44" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L25" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>45250</v>
-      </c>
-      <c r="B26" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="G26" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="17">
+      <c r="J44" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M44" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N44" s="59"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="61"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>45269</v>
+      </c>
+      <c r="B45" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="17">
+      <c r="C45" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N26" s="51">
-        <f>IFERROR(N21/N18, 0)</f>
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>45251</v>
-      </c>
-      <c r="B27" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="G27" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="17">
+      <c r="J45" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M45" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N45" s="62"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="64"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45270</v>
+      </c>
+      <c r="B46" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J27" s="17">
+      <c r="C46" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L27" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="56"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>45252</v>
-      </c>
-      <c r="B28" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="G28" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
+      <c r="J46" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M46" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N46" s="53"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>45271</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" ref="B47:B78" si="15">SUMIF(D$2:D$67,A47,J$2:J$67)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L28" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N28" s="22"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>45253</v>
-      </c>
-      <c r="B29" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="G29" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="J47" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M47" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N47" s="53"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>45272</v>
+      </c>
+      <c r="B48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L29" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>45254</v>
-      </c>
-      <c r="B30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="G30" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
+      <c r="J48" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M48" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N48" s="65"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="67"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>45273</v>
+      </c>
+      <c r="B49" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L30" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>45255</v>
-      </c>
-      <c r="B31" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="G31" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
+      <c r="J49" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M49" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N49" s="68"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="70"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>45274</v>
+      </c>
+      <c r="B50" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L31" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N31" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="32"/>
-      <c r="P31" s="28">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="26">
-        <f t="shared" ref="Q31:Q37" si="9">P31*N$18/100</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>45256</v>
-      </c>
-      <c r="B32" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="G32" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="J50" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M50" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>45275</v>
+      </c>
+      <c r="B51" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L32" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N32" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="32"/>
-      <c r="P32" s="28">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="26">
+      <c r="J51" s="14">
         <f t="shared" si="9"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>45257</v>
-      </c>
-      <c r="B33" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="G33" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M51" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N51" s="50"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="52"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>45276</v>
+      </c>
+      <c r="B52" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L33" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N33" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="O33" s="32"/>
-      <c r="P33" s="28">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="26">
+      <c r="J52" s="14">
         <f t="shared" si="9"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>45258</v>
-      </c>
-      <c r="B34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="G34" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M52" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N52" s="50"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>45277</v>
+      </c>
+      <c r="B53" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L34" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="Q34" s="26">
+      <c r="J53" s="14">
         <f t="shared" si="9"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>45259</v>
-      </c>
-      <c r="B35" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="G35" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M53" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N53" s="45"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="23"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>45278</v>
+      </c>
+      <c r="B54" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L35" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N35" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" s="32"/>
-      <c r="P35" s="28">
-        <v>2.8</v>
-      </c>
-      <c r="Q35" s="26">
+      <c r="J54" s="14">
         <f t="shared" si="9"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>45260</v>
-      </c>
-      <c r="B36" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="G36" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M54" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N54" s="45"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="23"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>45279</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L36" s="27">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N36" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="33"/>
-      <c r="P36" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="26">
+      <c r="J55" s="14">
         <f t="shared" si="9"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>45261</v>
-      </c>
-      <c r="B37" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="G37" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M55" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N55" s="45"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="23"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>45280</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L37" s="18">
-        <f>L36+J37</f>
-        <v>14773.5</v>
-      </c>
-      <c r="N37" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="69"/>
-      <c r="P37" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="26">
+      <c r="J56" s="14">
         <f t="shared" si="9"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>45262</v>
-      </c>
-      <c r="B38" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="G38" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M56" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N56" s="45"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="23"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>45281</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L38" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N38" s="57"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="59"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
-        <v>45263</v>
-      </c>
-      <c r="B39" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="17">
+      <c r="J57" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M57" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N57" s="45"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="23"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>45282</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="17"/>
+      <c r="I58" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L39" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="41"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>45264</v>
-      </c>
-      <c r="B40" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="17">
+      <c r="J58" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M58" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N58" s="45"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="23"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>45283</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L40" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="44"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>45265</v>
-      </c>
-      <c r="B41" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="17">
+      <c r="J59" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M59" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+      <c r="N59" s="48"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="23"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>45284</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L41" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N41" s="48"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="50"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>45266</v>
-      </c>
-      <c r="B42" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="17">
+      <c r="J60" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M60" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>45285</v>
+      </c>
+      <c r="B61" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L42" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N42" s="39"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="41"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>45267</v>
-      </c>
-      <c r="B43" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="17">
+      <c r="J61" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M61" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>45286</v>
+      </c>
+      <c r="B62" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L43" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N43" s="42"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="44"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>45268</v>
-      </c>
-      <c r="B44" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
+      <c r="J62" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M62" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>45287</v>
+      </c>
+      <c r="B63" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L44" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N44" s="45"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="47"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
-        <v>45269</v>
-      </c>
-      <c r="B45" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="17">
+      <c r="J63" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M63" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>45288</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L45" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N45" s="48"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="50"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>45270</v>
-      </c>
-      <c r="B46" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
+      <c r="J64" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M64" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>45289</v>
+      </c>
+      <c r="B65" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L46" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N46" s="39"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="41"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
-        <v>45271</v>
-      </c>
-      <c r="B47" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="17">
+      <c r="J65" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="15">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M65" s="41">
+        <f t="shared" si="14"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>45290</v>
+      </c>
+      <c r="B66" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="16">
+        <f t="shared" ref="C66:C97" si="16">B66/L$1</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="14">
+        <f t="shared" ref="G66:G97" si="17">IFERROR(VLOOKUP(F66,N$29:Q$38,4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L47" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N47" s="39"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="41"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
-        <v>45272</v>
-      </c>
-      <c r="B48" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C48" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="53"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
-        <v>45273</v>
-      </c>
-      <c r="B49" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N49" s="54"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="56"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>45274</v>
-      </c>
-      <c r="B50" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C50" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N50" s="22"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>45275</v>
-      </c>
-      <c r="B51" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C51" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N51" s="36"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="38"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
-        <v>45276</v>
-      </c>
-      <c r="B52" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N52" s="36"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="24"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>45277</v>
-      </c>
-      <c r="B53" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C53" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="26"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
-        <v>45278</v>
-      </c>
-      <c r="B54" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N54" s="31"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="26"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
-        <v>45279</v>
-      </c>
-      <c r="B55" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N55" s="31"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="26"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
-        <v>45280</v>
-      </c>
-      <c r="B56" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N56" s="31"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="26"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
-        <v>45281</v>
-      </c>
-      <c r="B57" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="26"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
-        <v>45282</v>
-      </c>
-      <c r="B58" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N58" s="31"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="26"/>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
-        <v>45283</v>
-      </c>
-      <c r="B59" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-      <c r="N59" s="34"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="26"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
-        <v>45284</v>
-      </c>
-      <c r="B60" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
-        <v>45285</v>
-      </c>
-      <c r="B61" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
-        <v>45286</v>
-      </c>
-      <c r="B62" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
-        <v>45287</v>
-      </c>
-      <c r="B63" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
-        <v>45288</v>
-      </c>
-      <c r="B64" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
-        <v>45289</v>
-      </c>
-      <c r="B65" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C65" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
-        <v>45290</v>
-      </c>
-      <c r="B66" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C66" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="20"/>
-      <c r="I66" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="18">
-        <f t="shared" si="5"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="J66" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <f t="shared" ref="L66:L98" si="18">L65+J66</f>
+        <v>10000</v>
+      </c>
+      <c r="M66" s="41">
+        <f t="shared" ref="M66:M98" si="19">M65+J66</f>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
         <v>45291</v>
       </c>
-      <c r="B67" s="17">
-        <f t="shared" ref="B67:B98" si="10">SUMIF(D$2:D$67,A67,J$2:J$67)</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="19">
-        <f t="shared" ref="C67:C98" si="11">B67/L$1</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="17">
-        <f t="shared" ref="G67:G98" si="12">IFERROR(VLOOKUP(F67,N$29:Q$37,4,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="17">
-        <f t="shared" ref="I67:I98" si="13">IFERROR(H67*G67, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="17">
-        <f t="shared" ref="J67:J98" si="14">IFERROR(I67-G67, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="18">
-        <f t="shared" ref="L67:L98" si="15">L66+J67</f>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="B67" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="14">
+        <f t="shared" ref="I67:I98" si="20">IFERROR(H67*G67, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
+        <f t="shared" ref="J67:J98" si="21">IFERROR(I67-G67, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M67" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
         <v>45292</v>
       </c>
-      <c r="B68" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="18">
+      <c r="B68" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+        <v>0</v>
+      </c>
+      <c r="C68" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M68" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
         <v>45293</v>
       </c>
-      <c r="B69" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C69" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="18">
+      <c r="B69" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M69" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
         <v>45294</v>
       </c>
-      <c r="B70" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C70" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="18">
+      <c r="B70" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+        <v>0</v>
+      </c>
+      <c r="C70" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M70" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
         <v>45295</v>
       </c>
-      <c r="B71" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C71" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="18">
+      <c r="B71" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+        <v>0</v>
+      </c>
+      <c r="C71" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M71" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
         <v>45296</v>
       </c>
-      <c r="B72" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C72" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="18">
+      <c r="B72" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M72" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
         <v>45297</v>
       </c>
-      <c r="B73" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C73" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="18">
+      <c r="B73" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+        <v>0</v>
+      </c>
+      <c r="C73" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M73" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
         <v>45298</v>
       </c>
-      <c r="B74" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C74" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="18">
+      <c r="B74" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+        <v>0</v>
+      </c>
+      <c r="C74" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M74" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
         <v>45299</v>
       </c>
-      <c r="B75" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C75" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="18">
+      <c r="B75" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+        <v>0</v>
+      </c>
+      <c r="C75" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M75" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
         <v>45300</v>
       </c>
-      <c r="B76" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C76" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="18">
+      <c r="B76" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+        <v>0</v>
+      </c>
+      <c r="C76" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M76" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
         <v>45301</v>
       </c>
-      <c r="B77" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C77" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="18">
+      <c r="B77" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+        <v>0</v>
+      </c>
+      <c r="C77" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M77" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
         <v>45302</v>
       </c>
-      <c r="B78" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C78" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="18">
+      <c r="B78" s="14">
         <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M78" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
         <v>45303</v>
       </c>
-      <c r="B79" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C79" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="B79" s="14">
+        <f t="shared" ref="B79:B98" si="22">SUMIF(D$2:D$67,A79,J$2:J$67)</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M79" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
         <v>45304</v>
       </c>
-      <c r="B80" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C80" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+      <c r="B80" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M80" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
         <v>45305</v>
       </c>
-      <c r="B81" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C81" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+      <c r="B81" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M81" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
         <v>45306</v>
       </c>
-      <c r="B82" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C82" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="B82" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M82" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
         <v>45307</v>
       </c>
-      <c r="B83" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C83" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="B83" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M83" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
         <v>45308</v>
       </c>
-      <c r="B84" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C84" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+      <c r="B84" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M84" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
         <v>45309</v>
       </c>
-      <c r="B85" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C85" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="B85" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M85" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
         <v>45310</v>
       </c>
-      <c r="B86" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+      <c r="B86" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M86" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
         <v>45311</v>
       </c>
-      <c r="B87" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C87" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+      <c r="B87" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M87" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
         <v>45312</v>
       </c>
-      <c r="B88" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C88" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+      <c r="B88" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M88" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
         <v>45313</v>
       </c>
-      <c r="B89" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C89" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="B89" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M89" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
         <v>45314</v>
       </c>
-      <c r="B90" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C90" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="B90" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M90" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
         <v>45315</v>
       </c>
-      <c r="B91" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C91" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="B91" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M91" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
         <v>45316</v>
       </c>
-      <c r="B92" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C92" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="B92" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M92" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
         <v>45317</v>
       </c>
-      <c r="B93" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C93" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+      <c r="B93" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M93" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
         <v>45318</v>
       </c>
-      <c r="B94" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C94" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
+      <c r="B94" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M94" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
         <v>45319</v>
       </c>
-      <c r="B95" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C95" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="B95" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M95" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
         <v>45320</v>
       </c>
-      <c r="B96" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C96" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
+      <c r="B96" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M96" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
         <v>45321</v>
       </c>
-      <c r="B97" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C97" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+      <c r="B97" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M97" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
         <v>45322</v>
       </c>
-      <c r="B98" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C98" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="18">
-        <f t="shared" si="15"/>
-        <v>14773.5</v>
+      <c r="B98" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="16">
+        <f t="shared" ref="C98" si="23">B98/L$1</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="14">
+        <f t="shared" ref="G98" si="24">IFERROR(VLOOKUP(F98,N$29:Q$38,4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="15">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="M98" s="41">
+        <f t="shared" si="19"/>
+        <v>5152.2299999999996</v>
       </c>
     </row>
   </sheetData>
@@ -9097,11 +10023,11 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N38:Q38"/>
     <mergeCell ref="N39:O39"/>
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="N40:O41"/>
     <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N38:O38"/>
     <mergeCell ref="N42:Q42"/>
     <mergeCell ref="N43:Q45"/>
     <mergeCell ref="N46:Q46"/>
@@ -9118,61 +10044,61 @@
     <mergeCell ref="N55:O55"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P37">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="P31:P38">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P37">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="lessThan">
+  <conditionalFormatting sqref="P31:P38">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P37">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
+  <conditionalFormatting sqref="P31:P38">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:P28">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -9183,7 +10109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:Q28">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -9194,7 +10120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -9204,53 +10130,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:P50">
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -9261,7 +10187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:Q50">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -9272,7 +10198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -9282,20 +10208,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J98">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J10" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{C1BF0916-8D48-4DFC-AE60-551FC5E50288}">
+          <x14:cfRule type="iconSet" priority="35" id="{C1BF0916-8D48-4DFC-AE60-551FC5E50288}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9311,7 +10240,7 @@
           <xm:sqref>O28:Q28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{37C2213E-E24F-4DAC-A56E-EE51D3C00732}">
+          <x14:cfRule type="iconSet" priority="21" id="{37C2213E-E24F-4DAC-A56E-EE51D3C00732}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/tecnica_analise/999XL.xlsx
+++ b/tecnica_analise/999XL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>MONTH</t>
   </si>
@@ -906,28 +906,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,6 +934,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,22 +981,13 @@
     <xf numFmtId="168" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,17 +1008,11 @@
     <xf numFmtId="168" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,27 +1020,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1623,24 +1603,24 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Equipes-style 10" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="58"/>
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
-    </tableStyle>
-    <tableStyle name="Equipes-style 2" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="56"/>
       <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 3" pivot="0" count="2">
+    <tableStyle name="Equipes-style 2" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="54"/>
       <tableStyleElement type="secondRowStripe" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 4" pivot="0" count="2">
+    <tableStyle name="Equipes-style 3" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
       <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 7" pivot="0" count="2">
+    <tableStyle name="Equipes-style 4" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="50"/>
       <tableStyleElement type="secondRowStripe" dxfId="49"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 7" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="secondRowStripe" dxfId="47"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1820,11 +1800,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="219066000"/>
-        <c:axId val="219066392"/>
+        <c:axId val="146370088"/>
+        <c:axId val="146372048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219066000"/>
+        <c:axId val="146370088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1847,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219066392"/>
+        <c:crossAx val="146372048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219066392"/>
+        <c:axId val="146372048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1906,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219066000"/>
+        <c:crossAx val="146370088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2196,11 +2176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219064040"/>
-        <c:axId val="219064432"/>
+        <c:axId val="146369304"/>
+        <c:axId val="146371264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219064040"/>
+        <c:axId val="146369304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,12 +2233,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219064432"/>
+        <c:crossAx val="146371264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219064432"/>
+        <c:axId val="146371264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2292,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219064040"/>
+        <c:crossAx val="146369304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2562,11 +2542,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267875984"/>
-        <c:axId val="267875592"/>
+        <c:axId val="271901816"/>
+        <c:axId val="271904168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267875984"/>
+        <c:axId val="271901816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2589,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267875592"/>
+        <c:crossAx val="271904168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2617,7 +2597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267875592"/>
+        <c:axId val="271904168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2648,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267875984"/>
+        <c:crossAx val="271901816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2923,11 +2903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267874024"/>
-        <c:axId val="267877160"/>
+        <c:axId val="271901424"/>
+        <c:axId val="271907304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267874024"/>
+        <c:axId val="271901424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,12 +2960,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267877160"/>
+        <c:crossAx val="271907304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267877160"/>
+        <c:axId val="271907304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3019,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267874024"/>
+        <c:crossAx val="271901424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5395,16 +5375,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_23512" displayName="Table_23512" ref="C10:F10" headerRowCount="0" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_23512" displayName="Table_23512" ref="C10:F10" headerRowCount="0" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="43">
+    <tableColumn id="1" name="Column1" dataDxfId="41">
       <calculatedColumnFormula>COUNTIF(InvestmentSport!K:K,D10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="42"/>
-    <tableColumn id="3" name="Column3" dataDxfId="41">
+    <tableColumn id="2" name="Column2" dataDxfId="40"/>
+    <tableColumn id="3" name="Column3" dataDxfId="39">
       <calculatedColumnFormula>SUMIF(InvestmentSport!K:K,D10,InvestmentSport!J:J)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="4" name="Column4" dataDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>E10/painel!B$17</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5413,16 +5393,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_33613" displayName="Table_33613" ref="C11:F11" headerRowCount="0" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_33613" displayName="Table_33613" ref="C11:F11" headerRowCount="0" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="36">
+    <tableColumn id="1" name="Column1" dataDxfId="34">
       <calculatedColumnFormula>COUNTIF(InvestmentSport!K:K,D11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="35"/>
-    <tableColumn id="3" name="Column3" dataDxfId="34">
+    <tableColumn id="2" name="Column2" dataDxfId="33"/>
+    <tableColumn id="3" name="Column3" dataDxfId="32">
       <calculatedColumnFormula>SUMIF(InvestmentSport!K:K,D11,InvestmentSport!J:J)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="4" name="Column4" dataDxfId="31" dataCellStyle="Percent">
       <calculatedColumnFormula>E11/painel!B$17</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5431,16 +5411,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_43714" displayName="Table_43714" ref="C12:F16" headerRowCount="0" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_43714" displayName="Table_43714" ref="C12:F16" headerRowCount="0" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="29">
+    <tableColumn id="1" name="Column1" dataDxfId="27">
       <calculatedColumnFormula>COUNTIF(InvestmentSport!K:K,D12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="28"/>
-    <tableColumn id="3" name="Column3" dataDxfId="27">
+    <tableColumn id="2" name="Column2" dataDxfId="26"/>
+    <tableColumn id="3" name="Column3" dataDxfId="25">
       <calculatedColumnFormula>SUMIF(InvestmentSport!K:K,D12,InvestmentSport!J:J)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="4" name="Column4" dataDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>E12/painel!B$17</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5973,10 +5953,10 @@
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="E4:E16">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6392,7 +6372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6466,27 +6448,34 @@
         <f t="shared" ref="C2:C33" si="0">B2/L$1</f>
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11">
+        <v>45239</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G2" s="14">
         <f t="shared" ref="G2:G33" si="1">IFERROR(VLOOKUP(F2,N$29:Q$38,4,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1.6</v>
+      </c>
       <c r="I2" s="14">
-        <f t="shared" ref="I2:I16" si="2">IFERROR(H2*G2, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="I2:I65" si="2">IFERROR(H2*G2, 0)</f>
+        <v>400</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J16" si="3">IFERROR(I2-G2, 0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L2" s="15">
         <f t="shared" ref="L2:L33" si="4">L1+J2</f>
-        <v>10000</v>
+        <v>10150</v>
       </c>
       <c r="M2" s="41">
         <f t="shared" ref="M2:M33" si="5">M1+J2</f>
-        <v>5152.2299999999996</v>
+        <v>5302.23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -6501,26 +6490,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>45239</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G3" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.65</v>
+      </c>
       <c r="I3" s="14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>412.5</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10312.5</v>
       </c>
       <c r="M3" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5464.73</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6535,10 +6532,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>45239</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="14">
@@ -6546,16 +6548,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>85.18-250</f>
+        <v>-164.82</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M4" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6577,6 +6579,7 @@
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="14">
@@ -6585,11 +6588,11 @@
       </c>
       <c r="L5" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M5" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6620,11 +6623,11 @@
       </c>
       <c r="L6" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M6" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6646,6 +6649,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="14">
@@ -6654,11 +6658,11 @@
       </c>
       <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6689,11 +6693,11 @@
       </c>
       <c r="L8" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M8" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6715,6 +6719,7 @@
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="14">
@@ -6723,11 +6728,11 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M9" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6758,11 +6763,11 @@
       </c>
       <c r="L10" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M10" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6784,6 +6789,7 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="14">
@@ -6792,11 +6798,11 @@
       </c>
       <c r="L11" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M11" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6827,11 +6833,11 @@
       </c>
       <c r="L12" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M12" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6853,6 +6859,7 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="14">
@@ -6861,11 +6868,11 @@
       </c>
       <c r="L13" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M13" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6896,11 +6903,11 @@
       </c>
       <c r="L14" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M14" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6909,11 +6916,11 @@
       </c>
       <c r="B15" s="14">
         <f t="shared" ref="B15:B46" si="7">SUMIF(D$2:D$67,A15,J$2:J$67)</f>
-        <v>0</v>
+        <v>147.68</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4768E-2</v>
       </c>
       <c r="D15" s="11"/>
       <c r="G15" s="14">
@@ -6931,11 +6938,11 @@
       </c>
       <c r="L15" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M15" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -6966,18 +6973,18 @@
       </c>
       <c r="L16" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M16" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N16" s="78" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -6998,29 +7005,29 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="14">
-        <f t="shared" ref="I17:I66" si="8">IFERROR(H17*G17, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" ref="J17:J66" si="9">IFERROR(I17-G17, 0)</f>
+        <f t="shared" ref="J17:J66" si="8">IFERROR(I17-G17, 0)</f>
         <v>0</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M17" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N17" s="53" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="71"/>
-      <c r="P17" s="72" t="s">
+      <c r="O17" s="73"/>
+      <c r="P17" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="55"/>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -7041,31 +7048,31 @@
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M18" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N18" s="56">
+        <v>5299.91</v>
+      </c>
+      <c r="N18" s="61">
         <f>painel!B19</f>
         <v>10000</v>
       </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="75">
+      <c r="O18" s="75"/>
+      <c r="P18" s="77">
         <f>N18+SUM(J:J)</f>
-        <v>10000</v>
-      </c>
-      <c r="Q18" s="58"/>
+        <v>10147.68</v>
+      </c>
+      <c r="Q18" s="63"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -7086,25 +7093,25 @@
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M19" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="64"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N19" s="67"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -7125,27 +7132,27 @@
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M20" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N20" s="53" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N20" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -7166,28 +7173,28 @@
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M21" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N21" s="56">
+        <v>5299.91</v>
+      </c>
+      <c r="N21" s="61">
         <f>SUM(P18-N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
+        <v>147.68000000000029</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="63"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -7208,25 +7215,25 @@
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M22" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
@@ -7247,25 +7254,25 @@
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M23" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="64"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -7286,27 +7293,27 @@
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M24" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N24" s="53" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N24" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -7327,27 +7334,27 @@
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M25" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N25" s="53" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
@@ -7368,28 +7375,28 @@
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M26" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N26" s="65">
+        <v>5299.91</v>
+      </c>
+      <c r="N26" s="55">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="67"/>
+        <v>1.4768000000000029E-2</v>
+      </c>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="57"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -7410,25 +7417,25 @@
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M27" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N27" s="68"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="70"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -7449,20 +7456,20 @@
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M28" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
@@ -7488,27 +7495,27 @@
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M29" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N29" s="50" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N29" s="48" t="s">
         <v>41</v>
       </c>
       <c r="O29" s="51"/>
       <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -7529,25 +7536,25 @@
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M30" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N30" s="50" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N30" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="52"/>
+      <c r="O30" s="49"/>
       <c r="P30" s="20" t="s">
         <v>28</v>
       </c>
@@ -7574,30 +7581,30 @@
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M31" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N31" s="45" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="46"/>
+      <c r="O31" s="47"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
       <c r="Q31" s="23">
-        <f t="shared" ref="Q31:Q36" si="10">P31*N$18/100</f>
+        <f t="shared" ref="Q31:Q36" si="9">P31*N$18/100</f>
         <v>400</v>
       </c>
     </row>
@@ -7620,30 +7627,30 @@
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M32" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N32" s="45" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="46"/>
+      <c r="O32" s="47"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
       <c r="Q32" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
     </row>
@@ -7666,30 +7673,30 @@
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M33" s="41">
         <f t="shared" si="5"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N33" s="45" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N33" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="46"/>
+      <c r="O33" s="47"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
       <c r="Q33" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
     </row>
@@ -7702,40 +7709,40 @@
         <v>0</v>
       </c>
       <c r="C34" s="16">
-        <f t="shared" ref="C34:C65" si="11">B34/L$1</f>
+        <f t="shared" ref="C34:C65" si="10">B34/L$1</f>
         <v>0</v>
       </c>
       <c r="D34" s="11"/>
       <c r="G34" s="14">
-        <f t="shared" ref="G34:G65" si="12">IFERROR(VLOOKUP(F34,N$29:Q$38,4,FALSE),0)</f>
+        <f t="shared" ref="G34:G65" si="11">IFERROR(VLOOKUP(F34,N$29:Q$38,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J34" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:L65" si="13">L33+J34</f>
-        <v>10000</v>
+        <f t="shared" ref="L34:L65" si="12">L33+J34</f>
+        <v>10147.68</v>
       </c>
       <c r="M34" s="41">
-        <f t="shared" ref="M34:M65" si="14">M33+J34</f>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N34" s="45" t="s">
+        <f t="shared" ref="M34:M65" si="13">M33+J34</f>
+        <v>5299.91</v>
+      </c>
+      <c r="N34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="46"/>
+      <c r="O34" s="47"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
       <c r="Q34" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
     </row>
@@ -7748,40 +7755,40 @@
         <v>0</v>
       </c>
       <c r="C35" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D35" s="11"/>
       <c r="G35" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J35" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L35" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M35" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M35" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N35" s="45" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N35" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O35" s="46"/>
+      <c r="O35" s="47"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
       <c r="Q35" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
     </row>
@@ -7794,40 +7801,40 @@
         <v>0</v>
       </c>
       <c r="C36" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D36" s="11"/>
       <c r="G36" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J36" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L36" s="24">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M36" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M36" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N36" s="45" t="s">
+        <v>5299.91</v>
+      </c>
+      <c r="N36" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="47"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="22">
         <v>2.5</v>
       </c>
       <c r="Q36" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
     </row>
@@ -7840,33 +7847,33 @@
         <v>0</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D37" s="11"/>
       <c r="G37" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J37" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L37" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M37" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M37" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
     </row>
@@ -7879,33 +7886,33 @@
         <v>0</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D38" s="11"/>
       <c r="G38" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J38" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L38" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M38" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M38" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
     </row>
@@ -7918,34 +7925,34 @@
         <v>0</v>
       </c>
       <c r="C39" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J39" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L39" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M39" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M39" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="55"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="54"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
@@ -7956,34 +7963,34 @@
         <v>0</v>
       </c>
       <c r="C40" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J40" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L40" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M40" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M40" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N40" s="56"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="58"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N40" s="61"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="63"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -7994,34 +8001,34 @@
         <v>0</v>
       </c>
       <c r="C41" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J41" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L41" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M41" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M41" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N41" s="62"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="64"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N41" s="67"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
@@ -8032,34 +8039,34 @@
         <v>0</v>
       </c>
       <c r="C42" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J42" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L42" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M42" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M42" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="54"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -8070,34 +8077,34 @@
         <v>0</v>
       </c>
       <c r="C43" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J43" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L43" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M43" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M43" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N43" s="56"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="58"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N43" s="61"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="63"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -8108,34 +8115,34 @@
         <v>0</v>
       </c>
       <c r="C44" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J44" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L44" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M44" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M44" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="61"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="66"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -8146,34 +8153,34 @@
         <v>0</v>
       </c>
       <c r="C45" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J45" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L45" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M45" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M45" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N45" s="62"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="64"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N45" s="67"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="69"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -8184,181 +8191,181 @@
         <v>0</v>
       </c>
       <c r="C46" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J46" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L46" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M46" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M46" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N46" s="53"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="54"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45271</v>
       </c>
       <c r="B47" s="14">
-        <f t="shared" ref="B47:B78" si="15">SUMIF(D$2:D$67,A47,J$2:J$67)</f>
+        <f t="shared" ref="B47:B78" si="14">SUMIF(D$2:D$67,A47,J$2:J$67)</f>
         <v>0</v>
       </c>
       <c r="C47" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J47" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L47" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M47" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M47" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N47" s="52"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="54"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>45272</v>
       </c>
       <c r="B48" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C48" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J48" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L48" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M48" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M48" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N48" s="65"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="67"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="57"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>45273</v>
       </c>
       <c r="B49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C49" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J49" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L49" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M49" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M49" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N49" s="68"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="70"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="60"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>45274</v>
       </c>
       <c r="B50" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C50" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J50" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L50" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M50" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M50" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
@@ -8370,74 +8377,74 @@
         <v>45275</v>
       </c>
       <c r="B51" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C51" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J51" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L51" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M51" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M51" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N51" s="50"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N51" s="48"/>
       <c r="O51" s="51"/>
       <c r="P51" s="51"/>
-      <c r="Q51" s="52"/>
+      <c r="Q51" s="49"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>45276</v>
       </c>
       <c r="B52" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C52" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J52" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L52" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M52" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M52" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N52" s="50"/>
-      <c r="O52" s="52"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N52" s="48"/>
+      <c r="O52" s="49"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
     </row>
@@ -8446,36 +8453,36 @@
         <v>45277</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C53" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J53" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L53" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M53" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M53" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N53" s="45"/>
-      <c r="O53" s="46"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N53" s="46"/>
+      <c r="O53" s="47"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="23"/>
     </row>
@@ -8484,36 +8491,36 @@
         <v>45278</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C54" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J54" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L54" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M54" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M54" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="46"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N54" s="46"/>
+      <c r="O54" s="47"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="23"/>
     </row>
@@ -8522,36 +8529,36 @@
         <v>45279</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C55" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J55" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L55" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M55" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M55" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="46"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="47"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="23"/>
     </row>
@@ -8560,36 +8567,36 @@
         <v>45280</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C56" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J56" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L56" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M56" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M56" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="46"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N56" s="46"/>
+      <c r="O56" s="47"/>
       <c r="P56" s="22"/>
       <c r="Q56" s="23"/>
     </row>
@@ -8598,36 +8605,36 @@
         <v>45281</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C57" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J57" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L57" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M57" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M57" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N57" s="45"/>
-      <c r="O57" s="46"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N57" s="46"/>
+      <c r="O57" s="47"/>
       <c r="P57" s="22"/>
       <c r="Q57" s="23"/>
     </row>
@@ -8636,36 +8643,36 @@
         <v>45282</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C58" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J58" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L58" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M58" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M58" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N58" s="45"/>
-      <c r="O58" s="47"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N58" s="46"/>
+      <c r="O58" s="50"/>
       <c r="P58" s="22"/>
       <c r="Q58" s="23"/>
     </row>
@@ -8674,36 +8681,36 @@
         <v>45283</v>
       </c>
       <c r="B59" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C59" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J59" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L59" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M59" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M59" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
-      </c>
-      <c r="N59" s="48"/>
-      <c r="O59" s="49"/>
+        <v>5299.91</v>
+      </c>
+      <c r="N59" s="79"/>
+      <c r="O59" s="80"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="23"/>
     </row>
@@ -8712,33 +8719,33 @@
         <v>45284</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C60" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J60" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L60" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M60" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M60" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8746,33 +8753,33 @@
         <v>45285</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C61" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J61" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L61" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M61" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M61" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8780,33 +8787,33 @@
         <v>45286</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C62" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J62" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L62" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M62" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M62" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8814,33 +8821,33 @@
         <v>45287</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C63" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J63" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L63" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M63" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M63" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8848,33 +8855,33 @@
         <v>45288</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C64" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J64" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L64" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M64" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M64" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -8882,33 +8889,33 @@
         <v>45289</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C65" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J65" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="L65" s="15">
+        <f t="shared" si="12"/>
+        <v>10147.68</v>
+      </c>
+      <c r="M65" s="41">
         <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="M65" s="41">
-        <f t="shared" si="14"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -8916,33 +8923,33 @@
         <v>45290</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" ref="C66:C97" si="16">B66/L$1</f>
+        <f t="shared" ref="C66:C97" si="15">B66/L$1</f>
         <v>0</v>
       </c>
       <c r="G66" s="14">
-        <f t="shared" ref="G66:G97" si="17">IFERROR(VLOOKUP(F66,N$29:Q$38,4,FALSE),0)</f>
+        <f t="shared" ref="G66:G97" si="16">IFERROR(VLOOKUP(F66,N$29:Q$38,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="17"/>
       <c r="I66" s="14">
+        <f t="shared" ref="I66:I98" si="17">IFERROR(H66*G66, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="14">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
         <f t="shared" ref="L66:L98" si="18">L65+J66</f>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M66" s="41">
         <f t="shared" ref="M66:M98" si="19">M65+J66</f>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -8950,33 +8957,33 @@
         <v>45291</v>
       </c>
       <c r="B67" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C67" s="16">
+      <c r="G67" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="14">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="14">
-        <f t="shared" ref="I67:I98" si="20">IFERROR(H67*G67, 0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" ref="J67:J98" si="21">IFERROR(I67-G67, 0)</f>
+        <f t="shared" ref="J67:J98" si="20">IFERROR(I67-G67, 0)</f>
         <v>0</v>
       </c>
       <c r="L67" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M67" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -8984,32 +8991,32 @@
         <v>45292</v>
       </c>
       <c r="B68" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C68" s="16">
+      <c r="G68" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G68" s="14">
+      <c r="I68" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I68" s="14">
+      <c r="J68" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L68" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M68" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -9017,32 +9024,32 @@
         <v>45293</v>
       </c>
       <c r="B69" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C69" s="16">
+      <c r="G69" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G69" s="14">
+      <c r="I69" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I69" s="14">
+      <c r="J69" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L69" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M69" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -9050,32 +9057,32 @@
         <v>45294</v>
       </c>
       <c r="B70" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C70" s="16">
+      <c r="G70" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G70" s="14">
+      <c r="I70" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I70" s="14">
+      <c r="J70" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L70" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M70" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -9083,32 +9090,32 @@
         <v>45295</v>
       </c>
       <c r="B71" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C71" s="16">
+      <c r="G71" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G71" s="14">
+      <c r="I71" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I71" s="14">
+      <c r="J71" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L71" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M71" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -9116,32 +9123,32 @@
         <v>45296</v>
       </c>
       <c r="B72" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C72" s="16">
+      <c r="G72" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G72" s="14">
+      <c r="I72" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I72" s="14">
+      <c r="J72" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L72" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M72" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -9149,32 +9156,32 @@
         <v>45297</v>
       </c>
       <c r="B73" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C73" s="16">
+      <c r="G73" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G73" s="14">
+      <c r="I73" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I73" s="14">
+      <c r="J73" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M73" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -9182,32 +9189,32 @@
         <v>45298</v>
       </c>
       <c r="B74" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C74" s="16">
+      <c r="G74" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G74" s="14">
+      <c r="I74" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I74" s="14">
+      <c r="J74" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M74" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -9215,32 +9222,32 @@
         <v>45299</v>
       </c>
       <c r="B75" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C75" s="16">
+      <c r="G75" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G75" s="14">
+      <c r="I75" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I75" s="14">
+      <c r="J75" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M75" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -9248,32 +9255,32 @@
         <v>45300</v>
       </c>
       <c r="B76" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C76" s="16">
+      <c r="G76" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G76" s="14">
+      <c r="I76" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I76" s="14">
+      <c r="J76" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M76" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -9281,32 +9288,32 @@
         <v>45301</v>
       </c>
       <c r="B77" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C77" s="16">
+      <c r="G77" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G77" s="14">
+      <c r="I77" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I77" s="14">
+      <c r="J77" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M77" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -9314,32 +9321,32 @@
         <v>45302</v>
       </c>
       <c r="B78" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="C78" s="16">
+      <c r="G78" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G78" s="14">
+      <c r="I78" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I78" s="14">
+      <c r="J78" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L78" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M78" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -9347,32 +9354,32 @@
         <v>45303</v>
       </c>
       <c r="B79" s="14">
-        <f t="shared" ref="B79:B98" si="22">SUMIF(D$2:D$67,A79,J$2:J$67)</f>
+        <f t="shared" ref="B79:B98" si="21">SUMIF(D$2:D$67,A79,J$2:J$67)</f>
         <v>0</v>
       </c>
       <c r="C79" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G79" s="14">
+      <c r="I79" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I79" s="14">
+      <c r="J79" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M79" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -9380,32 +9387,32 @@
         <v>45304</v>
       </c>
       <c r="B80" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C80" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G80" s="14">
+      <c r="I80" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I80" s="14">
+      <c r="J80" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L80" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M80" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9413,32 +9420,32 @@
         <v>45305</v>
       </c>
       <c r="B81" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C81" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G81" s="14">
+      <c r="I81" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I81" s="14">
+      <c r="J81" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L81" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M81" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9446,32 +9453,32 @@
         <v>45306</v>
       </c>
       <c r="B82" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C82" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G82" s="14">
+      <c r="I82" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I82" s="14">
+      <c r="J82" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M82" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9479,32 +9486,32 @@
         <v>45307</v>
       </c>
       <c r="B83" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C83" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G83" s="14">
+      <c r="I83" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I83" s="14">
+      <c r="J83" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M83" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9512,32 +9519,32 @@
         <v>45308</v>
       </c>
       <c r="B84" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C84" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G84" s="14">
+      <c r="I84" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I84" s="14">
+      <c r="J84" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L84" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M84" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9545,32 +9552,32 @@
         <v>45309</v>
       </c>
       <c r="B85" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C85" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G85" s="14">
+      <c r="I85" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I85" s="14">
+      <c r="J85" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L85" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M85" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -9578,32 +9585,32 @@
         <v>45310</v>
       </c>
       <c r="B86" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C86" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G86" s="14">
+      <c r="I86" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I86" s="14">
+      <c r="J86" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L86" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M86" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -9611,32 +9618,32 @@
         <v>45311</v>
       </c>
       <c r="B87" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C87" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G87" s="14">
+      <c r="I87" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I87" s="14">
+      <c r="J87" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L87" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M87" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -9644,32 +9651,32 @@
         <v>45312</v>
       </c>
       <c r="B88" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C88" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G88" s="14">
+      <c r="I88" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I88" s="14">
+      <c r="J88" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M88" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -9677,32 +9684,32 @@
         <v>45313</v>
       </c>
       <c r="B89" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C89" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G89" s="14">
+      <c r="I89" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I89" s="14">
+      <c r="J89" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L89" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M89" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -9710,32 +9717,32 @@
         <v>45314</v>
       </c>
       <c r="B90" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C90" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G90" s="14">
+      <c r="I90" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I90" s="14">
+      <c r="J90" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L90" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M90" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -9743,32 +9750,32 @@
         <v>45315</v>
       </c>
       <c r="B91" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C91" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G91" s="14">
+      <c r="I91" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I91" s="14">
+      <c r="J91" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L91" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M91" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -9776,32 +9783,32 @@
         <v>45316</v>
       </c>
       <c r="B92" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C92" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G92" s="14">
+      <c r="I92" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I92" s="14">
+      <c r="J92" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L92" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M92" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -9809,32 +9816,32 @@
         <v>45317</v>
       </c>
       <c r="B93" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C93" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G93" s="14">
+      <c r="I93" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I93" s="14">
+      <c r="J93" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M93" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -9842,32 +9849,32 @@
         <v>45318</v>
       </c>
       <c r="B94" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C94" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G94" s="14">
+      <c r="I94" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I94" s="14">
+      <c r="J94" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L94" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M94" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -9875,32 +9882,32 @@
         <v>45319</v>
       </c>
       <c r="B95" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C95" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G95" s="14">
+      <c r="I95" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I95" s="14">
+      <c r="J95" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L95" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M95" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -9908,32 +9915,32 @@
         <v>45320</v>
       </c>
       <c r="B96" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C96" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G96" s="14">
+      <c r="I96" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I96" s="14">
+      <c r="J96" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L96" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M96" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -9941,32 +9948,32 @@
         <v>45321</v>
       </c>
       <c r="B97" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C97" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="14">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G97" s="14">
+      <c r="I97" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I97" s="14">
+      <c r="J97" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L97" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M97" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -9974,36 +9981,65 @@
         <v>45322</v>
       </c>
       <c r="B98" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C98" s="16">
-        <f t="shared" ref="C98" si="23">B98/L$1</f>
+        <f t="shared" ref="C98" si="22">B98/L$1</f>
         <v>0</v>
       </c>
       <c r="G98" s="14">
-        <f t="shared" ref="G98" si="24">IFERROR(VLOOKUP(F98,N$29:Q$38,4,FALSE),0)</f>
+        <f t="shared" ref="G98" si="23">IFERROR(VLOOKUP(F98,N$29:Q$38,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I98" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="14">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L98" s="15">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>10147.68</v>
       </c>
       <c r="M98" s="41">
         <f t="shared" si="19"/>
-        <v>5152.2299999999996</v>
+        <v>5299.91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N30:O30"/>
@@ -10013,87 +10049,58 @@
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:P38">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:P38">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:P38">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10130,48 +10137,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P59">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10208,10 +10215,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J98">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/999XL.xlsx
+++ b/tecnica_analise/999XL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>MONTH</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>USA CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>VENEZIA vs CATANZARO</t>
+  </si>
+  <si>
+    <t>italia serie b</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1800,11 +1805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="146370088"/>
-        <c:axId val="146372048"/>
+        <c:axId val="220026696"/>
+        <c:axId val="220023560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146370088"/>
+        <c:axId val="220026696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1852,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146372048"/>
+        <c:crossAx val="220023560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1855,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146372048"/>
+        <c:axId val="220023560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1911,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146370088"/>
+        <c:crossAx val="220026696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,7 +2006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2176,11 +2180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146369304"/>
-        <c:axId val="146371264"/>
+        <c:axId val="220025912"/>
+        <c:axId val="220024344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146369304"/>
+        <c:axId val="220025912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,12 +2237,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146371264"/>
+        <c:crossAx val="220024344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146371264"/>
+        <c:axId val="220024344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2296,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146369304"/>
+        <c:crossAx val="220025912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,7 +2396,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2542,11 +2545,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="271901816"/>
-        <c:axId val="271904168"/>
+        <c:axId val="267218168"/>
+        <c:axId val="267220520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271901816"/>
+        <c:axId val="267218168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2592,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271904168"/>
+        <c:crossAx val="267220520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2597,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271904168"/>
+        <c:axId val="267220520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2651,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271901816"/>
+        <c:crossAx val="267218168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2743,7 +2746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2903,11 +2905,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="271901424"/>
-        <c:axId val="271907304"/>
+        <c:axId val="267219736"/>
+        <c:axId val="267217776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="271901424"/>
+        <c:axId val="267219736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,12 +2962,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271907304"/>
+        <c:crossAx val="267217776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="271907304"/>
+        <c:axId val="267217776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3021,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271901424"/>
+        <c:crossAx val="267219736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6372,8 +6374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6572,27 +6574,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>45240</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="17"/>
+        <f>IFERROR(VLOOKUP(F5,N$29:Q$38,4,FALSE),0)</f>
+        <v>280</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1.75</v>
+      </c>
       <c r="I5" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M5" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6623,11 +6638,11 @@
       </c>
       <c r="L6" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M6" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6658,11 +6673,11 @@
       </c>
       <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6693,11 +6708,11 @@
       </c>
       <c r="L8" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M8" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6728,11 +6743,11 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M9" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6763,11 +6778,11 @@
       </c>
       <c r="L10" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M10" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6798,11 +6813,11 @@
       </c>
       <c r="L11" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M11" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6833,11 +6848,11 @@
       </c>
       <c r="L12" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M12" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6868,11 +6883,11 @@
       </c>
       <c r="L13" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M13" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6903,11 +6918,11 @@
       </c>
       <c r="L14" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M14" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6938,11 +6953,11 @@
       </c>
       <c r="L15" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M15" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -6951,11 +6966,11 @@
       </c>
       <c r="B16" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D16" s="11"/>
       <c r="G16" s="14">
@@ -6973,11 +6988,11 @@
       </c>
       <c r="L16" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M16" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N16" s="70" t="s">
         <v>33</v>
@@ -7014,11 +7029,11 @@
       </c>
       <c r="L17" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M17" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N17" s="52" t="s">
         <v>34</v>
@@ -7057,11 +7072,11 @@
       </c>
       <c r="L18" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M18" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N18" s="61">
         <f>painel!B19</f>
@@ -7070,7 +7085,7 @@
       <c r="O18" s="75"/>
       <c r="P18" s="77">
         <f>N18+SUM(J:J)</f>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="Q18" s="63"/>
     </row>
@@ -7102,11 +7117,11 @@
       </c>
       <c r="L19" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M19" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N19" s="67"/>
       <c r="O19" s="76"/>
@@ -7141,11 +7156,11 @@
       </c>
       <c r="L20" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M20" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N20" s="52" t="s">
         <v>36</v>
@@ -7182,15 +7197,15 @@
       </c>
       <c r="L21" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M21" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N21" s="61">
         <f>SUM(P18-N18)</f>
-        <v>147.68000000000029</v>
+        <v>357.68000000000029</v>
       </c>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
@@ -7224,11 +7239,11 @@
       </c>
       <c r="L22" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M22" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
@@ -7263,11 +7278,11 @@
       </c>
       <c r="L23" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M23" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N23" s="67"/>
       <c r="O23" s="68"/>
@@ -7302,11 +7317,11 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M24" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N24" s="52" t="s">
         <v>29</v>
@@ -7343,11 +7358,11 @@
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M25" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N25" s="52" t="s">
         <v>33</v>
@@ -7384,15 +7399,15 @@
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M26" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N26" s="55">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>1.4768000000000029E-2</v>
+        <v>3.5768000000000029E-2</v>
       </c>
       <c r="O26" s="56"/>
       <c r="P26" s="56"/>
@@ -7426,11 +7441,11 @@
       </c>
       <c r="L27" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M27" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N27" s="58"/>
       <c r="O27" s="59"/>
@@ -7465,11 +7480,11 @@
       </c>
       <c r="L28" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M28" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
@@ -7504,11 +7519,11 @@
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M29" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N29" s="48" t="s">
         <v>41</v>
@@ -7545,11 +7560,11 @@
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M30" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N30" s="48" t="s">
         <v>37</v>
@@ -7590,11 +7605,11 @@
       </c>
       <c r="L31" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M31" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N31" s="46" t="s">
         <v>24</v>
@@ -7636,11 +7651,11 @@
       </c>
       <c r="L32" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M32" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N32" s="46" t="s">
         <v>39</v>
@@ -7682,11 +7697,11 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" si="4"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M33" s="41">
         <f t="shared" si="5"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N33" s="46" t="s">
         <v>40</v>
@@ -7728,11 +7743,11 @@
       </c>
       <c r="L34" s="15">
         <f t="shared" ref="L34:L65" si="12">L33+J34</f>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M34" s="41">
         <f t="shared" ref="M34:M65" si="13">M33+J34</f>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N34" s="46" t="s">
         <v>32</v>
@@ -7774,11 +7789,11 @@
       </c>
       <c r="L35" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M35" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N35" s="46" t="s">
         <v>31</v>
@@ -7820,11 +7835,11 @@
       </c>
       <c r="L36" s="24">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M36" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N36" s="46" t="s">
         <v>55</v>
@@ -7866,11 +7881,11 @@
       </c>
       <c r="L37" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M37" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
@@ -7905,11 +7920,11 @@
       </c>
       <c r="L38" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M38" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
@@ -7943,11 +7958,11 @@
       </c>
       <c r="L39" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M39" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N39" s="52"/>
       <c r="O39" s="73"/>
@@ -7981,11 +7996,11 @@
       </c>
       <c r="L40" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M40" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N40" s="61"/>
       <c r="O40" s="75"/>
@@ -8019,11 +8034,11 @@
       </c>
       <c r="L41" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M41" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N41" s="67"/>
       <c r="O41" s="76"/>
@@ -8057,11 +8072,11 @@
       </c>
       <c r="L42" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M42" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N42" s="52"/>
       <c r="O42" s="53"/>
@@ -8095,11 +8110,11 @@
       </c>
       <c r="L43" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M43" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N43" s="61"/>
       <c r="O43" s="62"/>
@@ -8133,11 +8148,11 @@
       </c>
       <c r="L44" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M44" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
@@ -8171,11 +8186,11 @@
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M45" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N45" s="67"/>
       <c r="O45" s="68"/>
@@ -8209,11 +8224,11 @@
       </c>
       <c r="L46" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M46" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N46" s="52"/>
       <c r="O46" s="53"/>
@@ -8247,11 +8262,11 @@
       </c>
       <c r="L47" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M47" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N47" s="52"/>
       <c r="O47" s="53"/>
@@ -8285,11 +8300,11 @@
       </c>
       <c r="L48" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M48" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N48" s="55"/>
       <c r="O48" s="56"/>
@@ -8323,11 +8338,11 @@
       </c>
       <c r="L49" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M49" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N49" s="58"/>
       <c r="O49" s="59"/>
@@ -8361,11 +8376,11 @@
       </c>
       <c r="L50" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M50" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
@@ -8399,11 +8414,11 @@
       </c>
       <c r="L51" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M51" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N51" s="48"/>
       <c r="O51" s="51"/>
@@ -8437,11 +8452,11 @@
       </c>
       <c r="L52" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M52" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N52" s="48"/>
       <c r="O52" s="49"/>
@@ -8475,11 +8490,11 @@
       </c>
       <c r="L53" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M53" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N53" s="46"/>
       <c r="O53" s="47"/>
@@ -8513,11 +8528,11 @@
       </c>
       <c r="L54" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M54" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N54" s="46"/>
       <c r="O54" s="47"/>
@@ -8551,11 +8566,11 @@
       </c>
       <c r="L55" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M55" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N55" s="46"/>
       <c r="O55" s="47"/>
@@ -8589,11 +8604,11 @@
       </c>
       <c r="L56" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M56" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N56" s="46"/>
       <c r="O56" s="47"/>
@@ -8627,11 +8642,11 @@
       </c>
       <c r="L57" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M57" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N57" s="46"/>
       <c r="O57" s="47"/>
@@ -8665,11 +8680,11 @@
       </c>
       <c r="L58" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M58" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N58" s="46"/>
       <c r="O58" s="50"/>
@@ -8703,11 +8718,11 @@
       </c>
       <c r="L59" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M59" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
       <c r="N59" s="79"/>
       <c r="O59" s="80"/>
@@ -8741,11 +8756,11 @@
       </c>
       <c r="L60" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M60" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8775,11 +8790,11 @@
       </c>
       <c r="L61" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M61" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8809,11 +8824,11 @@
       </c>
       <c r="L62" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M62" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8843,11 +8858,11 @@
       </c>
       <c r="L63" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M63" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8877,11 +8892,11 @@
       </c>
       <c r="L64" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M64" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -8911,11 +8926,11 @@
       </c>
       <c r="L65" s="15">
         <f t="shared" si="12"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M65" s="41">
         <f t="shared" si="13"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -8945,11 +8960,11 @@
       </c>
       <c r="L66" s="15">
         <f t="shared" ref="L66:L98" si="18">L65+J66</f>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M66" s="41">
         <f t="shared" ref="M66:M98" si="19">M65+J66</f>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -8979,11 +8994,11 @@
       </c>
       <c r="L67" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M67" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -9012,11 +9027,11 @@
       </c>
       <c r="L68" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M68" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -9045,11 +9060,11 @@
       </c>
       <c r="L69" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M69" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -9078,11 +9093,11 @@
       </c>
       <c r="L70" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M70" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -9111,11 +9126,11 @@
       </c>
       <c r="L71" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M71" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -9144,11 +9159,11 @@
       </c>
       <c r="L72" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M72" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -9177,11 +9192,11 @@
       </c>
       <c r="L73" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M73" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -9210,11 +9225,11 @@
       </c>
       <c r="L74" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M74" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -9243,11 +9258,11 @@
       </c>
       <c r="L75" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M75" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -9276,11 +9291,11 @@
       </c>
       <c r="L76" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M76" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -9309,11 +9324,11 @@
       </c>
       <c r="L77" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M77" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -9342,11 +9357,11 @@
       </c>
       <c r="L78" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M78" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -9375,11 +9390,11 @@
       </c>
       <c r="L79" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M79" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -9408,11 +9423,11 @@
       </c>
       <c r="L80" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M80" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9441,11 +9456,11 @@
       </c>
       <c r="L81" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M81" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9474,11 +9489,11 @@
       </c>
       <c r="L82" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M82" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9507,11 +9522,11 @@
       </c>
       <c r="L83" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M83" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9540,11 +9555,11 @@
       </c>
       <c r="L84" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M84" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9573,11 +9588,11 @@
       </c>
       <c r="L85" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M85" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -9606,11 +9621,11 @@
       </c>
       <c r="L86" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M86" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -9639,11 +9654,11 @@
       </c>
       <c r="L87" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M87" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -9672,11 +9687,11 @@
       </c>
       <c r="L88" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M88" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -9705,11 +9720,11 @@
       </c>
       <c r="L89" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M89" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -9738,11 +9753,11 @@
       </c>
       <c r="L90" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M90" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -9771,11 +9786,11 @@
       </c>
       <c r="L91" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M91" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -9804,11 +9819,11 @@
       </c>
       <c r="L92" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M92" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -9837,11 +9852,11 @@
       </c>
       <c r="L93" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M93" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -9870,11 +9885,11 @@
       </c>
       <c r="L94" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M94" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -9903,11 +9918,11 @@
       </c>
       <c r="L95" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M95" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -9936,11 +9951,11 @@
       </c>
       <c r="L96" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M96" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -9969,11 +9984,11 @@
       </c>
       <c r="L97" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M97" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -10002,11 +10017,11 @@
       </c>
       <c r="L98" s="15">
         <f t="shared" si="18"/>
-        <v>10147.68</v>
+        <v>10357.68</v>
       </c>
       <c r="M98" s="41">
         <f t="shared" si="19"/>
-        <v>5299.91</v>
+        <v>5509.91</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/999XL.xlsx
+++ b/tecnica_analise/999XL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>MONTH</t>
   </si>
@@ -209,6 +209,39 @@
   </si>
   <si>
     <t>italia serie b</t>
+  </si>
+  <si>
+    <t>BOCHUM vs FC KOLN</t>
+  </si>
+  <si>
+    <t>SOUTHAMPTON vs WEST BROM</t>
+  </si>
+  <si>
+    <t>bundesliga</t>
+  </si>
+  <si>
+    <t>championship</t>
+  </si>
+  <si>
+    <t>italia serie c</t>
+  </si>
+  <si>
+    <t>over 2,5</t>
+  </si>
+  <si>
+    <t>under 2,5</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>DERBY COUNTY vs BARNSLEY</t>
+  </si>
+  <si>
+    <t>V. FRANCAVILLA vs CASERTANA</t>
+  </si>
+  <si>
+    <t>league one</t>
   </si>
 </sst>
 </file>
@@ -912,25 +945,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,24 +976,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,13 +1005,22 @@
     <xf numFmtId="168" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,11 +1041,17 @@
     <xf numFmtId="168" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1805,11 +1838,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220026696"/>
-        <c:axId val="220023560"/>
+        <c:axId val="263231800"/>
+        <c:axId val="263950624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220026696"/>
+        <c:axId val="263231800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1885,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220023560"/>
+        <c:crossAx val="263950624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220023560"/>
+        <c:axId val="263950624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1944,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220026696"/>
+        <c:crossAx val="263231800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2180,11 +2213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220025912"/>
-        <c:axId val="220024344"/>
+        <c:axId val="264036640"/>
+        <c:axId val="264037024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220025912"/>
+        <c:axId val="264036640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,12 +2270,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220024344"/>
+        <c:crossAx val="264037024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220024344"/>
+        <c:axId val="264037024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2329,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220025912"/>
+        <c:crossAx val="264036640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2545,11 +2578,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267218168"/>
-        <c:axId val="267220520"/>
+        <c:axId val="263710536"/>
+        <c:axId val="263710920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267218168"/>
+        <c:axId val="263710536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2625,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267220520"/>
+        <c:crossAx val="263710920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267220520"/>
+        <c:axId val="263710920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2684,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267218168"/>
+        <c:crossAx val="263710536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2905,11 +2938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267219736"/>
-        <c:axId val="267217776"/>
+        <c:axId val="263741328"/>
+        <c:axId val="262486072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267219736"/>
+        <c:axId val="263741328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,12 +2995,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267217776"/>
+        <c:crossAx val="262486072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267217776"/>
+        <c:axId val="262486072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3054,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267219736"/>
+        <c:crossAx val="263741328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5751,18 +5784,18 @@
     <row r="5" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="32">
         <f>COUNTIF(InvestmentSport!K:K,D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="33">
         <f>SUMIF(InvestmentSport!K:K,D5,InvestmentSport!J:J)</f>
-        <v>0</v>
+        <v>138.60000000000002</v>
       </c>
       <c r="F5" s="40">
         <f>E5/painel!B$17</f>
-        <v>0</v>
+        <v>1.3860000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5785,18 +5818,18 @@
     <row r="7" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="32">
         <f>COUNTIF(InvestmentSport!K:K,D7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="33">
         <f>SUMIF(InvestmentSport!K:K,D7,InvestmentSport!J:J)</f>
-        <v>0</v>
+        <v>232.39999999999998</v>
       </c>
       <c r="F7" s="40">
         <f>E7/painel!B$17</f>
-        <v>0</v>
+        <v>2.3239999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5853,18 +5886,18 @@
     <row r="11" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="32">
         <f>COUNTIF(InvestmentSport!K:K,D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="33">
         <f>SUMIF(InvestmentSport!K:K,D11,InvestmentSport!J:J)</f>
-        <v>0</v>
+        <v>95.199999999999989</v>
       </c>
       <c r="F11" s="40">
         <f>E11/painel!B$17</f>
-        <v>0</v>
+        <v>9.5199999999999989E-3</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6374,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6393,6 +6426,7 @@
     <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6437,6 +6471,9 @@
       <c r="M1" s="41">
         <v>5152.2299999999996</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
@@ -6609,6 +6646,9 @@
         <f t="shared" si="5"/>
         <v>5509.91</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -6622,27 +6662,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="17"/>
+        <v>280</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.68</v>
+      </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>470.4</v>
       </c>
       <c r="J6" s="14">
         <f>IFERROR((I6-G6)/2, 0)</f>
-        <v>0</v>
+        <v>95.199999999999989</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10452.880000000001</v>
       </c>
       <c r="M6" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>5605.11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6657,27 +6713,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G7" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="17"/>
+        <v>280</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.83</v>
+      </c>
       <c r="I7" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>512.4</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>232.39999999999998</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10685.28</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>5837.5099999999993</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6692,27 +6764,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>280</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.6</v>
+      </c>
       <c r="I8" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10853.28</v>
       </c>
       <c r="M8" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6005.5099999999993</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6727,27 +6815,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>45241</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1.77</v>
+      </c>
       <c r="I9" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>318.60000000000002</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>138.60000000000002</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M9" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6778,11 +6882,11 @@
       </c>
       <c r="L10" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M10" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6813,11 +6917,11 @@
       </c>
       <c r="L11" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M11" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6848,11 +6952,11 @@
       </c>
       <c r="L12" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M12" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6883,11 +6987,11 @@
       </c>
       <c r="L13" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M13" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6918,11 +7022,11 @@
       </c>
       <c r="L14" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M14" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6953,11 +7057,11 @@
       </c>
       <c r="L15" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M15" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -6988,18 +7092,18 @@
       </c>
       <c r="L16" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M16" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N16" s="70" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N16" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="72"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -7007,11 +7111,11 @@
       </c>
       <c r="B17" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>634.20000000000005</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3420000000000004E-2</v>
       </c>
       <c r="D17" s="11"/>
       <c r="G17" s="14">
@@ -7029,20 +7133,20 @@
       </c>
       <c r="L17" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M17" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N17" s="52" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N17" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74" t="s">
+      <c r="O17" s="71"/>
+      <c r="P17" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="54"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -7072,22 +7176,22 @@
       </c>
       <c r="L18" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M18" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N18" s="61">
+        <v>6144.11</v>
+      </c>
+      <c r="N18" s="56">
         <f>painel!B19</f>
         <v>10000</v>
       </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="77">
+      <c r="O18" s="73"/>
+      <c r="P18" s="75">
         <f>N18+SUM(J:J)</f>
-        <v>10357.68</v>
-      </c>
-      <c r="Q18" s="63"/>
+        <v>10991.88</v>
+      </c>
+      <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -7117,16 +7221,16 @@
       </c>
       <c r="L19" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M19" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="69"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N19" s="62"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="64"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -7156,18 +7260,18 @@
       </c>
       <c r="L20" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M20" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N20" s="52" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -7197,19 +7301,19 @@
       </c>
       <c r="L21" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M21" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N21" s="61">
+        <v>6144.11</v>
+      </c>
+      <c r="N21" s="56">
         <f>SUM(P18-N18)</f>
-        <v>357.68000000000029</v>
-      </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="63"/>
+        <v>991.8799999999992</v>
+      </c>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -7239,16 +7343,16 @@
       </c>
       <c r="L22" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M22" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="66"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
@@ -7278,16 +7382,16 @@
       </c>
       <c r="L23" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M23" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="64"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -7317,18 +7421,18 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M24" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N24" s="52" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N24" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -7358,18 +7462,18 @@
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M25" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N25" s="52" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
@@ -7399,19 +7503,19 @@
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M26" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N26" s="55">
+        <v>6144.11</v>
+      </c>
+      <c r="N26" s="65">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>3.5768000000000029E-2</v>
-      </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
+        <v>9.9187999999999915E-2</v>
+      </c>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -7441,16 +7545,16 @@
       </c>
       <c r="L27" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M27" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="60"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N27" s="68"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -7480,11 +7584,11 @@
       </c>
       <c r="L28" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M28" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
@@ -7519,18 +7623,18 @@
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M29" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N29" s="48" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N29" s="50" t="s">
         <v>41</v>
       </c>
       <c r="O29" s="51"/>
       <c r="P29" s="51"/>
-      <c r="Q29" s="49"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -7560,16 +7664,16 @@
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M30" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N30" s="48" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N30" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="49"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="20" t="s">
         <v>28</v>
       </c>
@@ -7605,16 +7709,16 @@
       </c>
       <c r="L31" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M31" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N31" s="46" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N31" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="47"/>
+      <c r="O31" s="46"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
@@ -7651,16 +7755,16 @@
       </c>
       <c r="L32" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M32" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N32" s="46" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N32" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="47"/>
+      <c r="O32" s="46"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
@@ -7697,16 +7801,16 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" si="4"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M33" s="41">
         <f t="shared" si="5"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N33" s="46" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N33" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="47"/>
+      <c r="O33" s="46"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
@@ -7743,16 +7847,16 @@
       </c>
       <c r="L34" s="15">
         <f t="shared" ref="L34:L65" si="12">L33+J34</f>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M34" s="41">
         <f t="shared" ref="M34:M65" si="13">M33+J34</f>
-        <v>5509.91</v>
-      </c>
-      <c r="N34" s="46" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="47"/>
+      <c r="O34" s="46"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
@@ -7789,16 +7893,16 @@
       </c>
       <c r="L35" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M35" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N35" s="46" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="O35" s="47"/>
+      <c r="O35" s="46"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
@@ -7835,16 +7939,16 @@
       </c>
       <c r="L36" s="24">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M36" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N36" s="46" t="s">
+        <v>6144.11</v>
+      </c>
+      <c r="N36" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="50"/>
+      <c r="O36" s="47"/>
       <c r="P36" s="22">
         <v>2.5</v>
       </c>
@@ -7881,14 +7985,14 @@
       </c>
       <c r="L37" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M37" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
     </row>
@@ -7920,14 +8024,14 @@
       </c>
       <c r="L38" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M38" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
     </row>
@@ -7958,16 +8062,16 @@
       </c>
       <c r="L39" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M39" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="54"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N39" s="53"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="55"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
@@ -7996,16 +8100,16 @@
       </c>
       <c r="L40" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M40" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N40" s="61"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="63"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N40" s="56"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="58"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -8034,16 +8138,16 @@
       </c>
       <c r="L41" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M41" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N41" s="67"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="69"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N41" s="62"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="64"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
@@ -8072,16 +8176,16 @@
       </c>
       <c r="L42" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M42" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="54"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -8110,16 +8214,16 @@
       </c>
       <c r="L43" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M43" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N43" s="61"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="63"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N43" s="56"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="58"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -8148,16 +8252,16 @@
       </c>
       <c r="L44" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M44" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N44" s="64"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="66"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N44" s="59"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="61"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -8186,16 +8290,16 @@
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M45" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N45" s="67"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="69"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N45" s="62"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="64"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -8224,16 +8328,16 @@
       </c>
       <c r="L46" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M46" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="54"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N46" s="53"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
@@ -8262,16 +8366,16 @@
       </c>
       <c r="L47" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M47" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N47" s="52"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="54"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N47" s="53"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -8300,16 +8404,16 @@
       </c>
       <c r="L48" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M48" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="57"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N48" s="65"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="67"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
@@ -8338,16 +8442,16 @@
       </c>
       <c r="L49" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M49" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N49" s="58"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="60"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N49" s="68"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="70"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -8376,11 +8480,11 @@
       </c>
       <c r="L50" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M50" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
@@ -8414,16 +8518,16 @@
       </c>
       <c r="L51" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M51" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N51" s="48"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N51" s="50"/>
       <c r="O51" s="51"/>
       <c r="P51" s="51"/>
-      <c r="Q51" s="49"/>
+      <c r="Q51" s="52"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
@@ -8452,14 +8556,14 @@
       </c>
       <c r="L52" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M52" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N52" s="48"/>
-      <c r="O52" s="49"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N52" s="50"/>
+      <c r="O52" s="52"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
     </row>
@@ -8490,14 +8594,14 @@
       </c>
       <c r="L53" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M53" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N53" s="46"/>
-      <c r="O53" s="47"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N53" s="45"/>
+      <c r="O53" s="46"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="23"/>
     </row>
@@ -8528,14 +8632,14 @@
       </c>
       <c r="L54" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M54" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N54" s="46"/>
-      <c r="O54" s="47"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N54" s="45"/>
+      <c r="O54" s="46"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="23"/>
     </row>
@@ -8566,14 +8670,14 @@
       </c>
       <c r="L55" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M55" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N55" s="46"/>
-      <c r="O55" s="47"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N55" s="45"/>
+      <c r="O55" s="46"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="23"/>
     </row>
@@ -8604,14 +8708,14 @@
       </c>
       <c r="L56" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M56" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N56" s="46"/>
-      <c r="O56" s="47"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N56" s="45"/>
+      <c r="O56" s="46"/>
       <c r="P56" s="22"/>
       <c r="Q56" s="23"/>
     </row>
@@ -8642,14 +8746,14 @@
       </c>
       <c r="L57" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M57" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N57" s="46"/>
-      <c r="O57" s="47"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N57" s="45"/>
+      <c r="O57" s="46"/>
       <c r="P57" s="22"/>
       <c r="Q57" s="23"/>
     </row>
@@ -8680,14 +8784,14 @@
       </c>
       <c r="L58" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M58" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N58" s="46"/>
-      <c r="O58" s="50"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N58" s="45"/>
+      <c r="O58" s="47"/>
       <c r="P58" s="22"/>
       <c r="Q58" s="23"/>
     </row>
@@ -8718,14 +8822,14 @@
       </c>
       <c r="L59" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M59" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
-      </c>
-      <c r="N59" s="79"/>
-      <c r="O59" s="80"/>
+        <v>6144.11</v>
+      </c>
+      <c r="N59" s="48"/>
+      <c r="O59" s="49"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="23"/>
     </row>
@@ -8756,11 +8860,11 @@
       </c>
       <c r="L60" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M60" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8790,11 +8894,11 @@
       </c>
       <c r="L61" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M61" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8824,11 +8928,11 @@
       </c>
       <c r="L62" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M62" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8858,11 +8962,11 @@
       </c>
       <c r="L63" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M63" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8892,11 +8996,11 @@
       </c>
       <c r="L64" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M64" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -8926,11 +9030,11 @@
       </c>
       <c r="L65" s="15">
         <f t="shared" si="12"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M65" s="41">
         <f t="shared" si="13"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -8960,11 +9064,11 @@
       </c>
       <c r="L66" s="15">
         <f t="shared" ref="L66:L98" si="18">L65+J66</f>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M66" s="41">
         <f t="shared" ref="M66:M98" si="19">M65+J66</f>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -8994,11 +9098,11 @@
       </c>
       <c r="L67" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M67" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -9027,11 +9131,11 @@
       </c>
       <c r="L68" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M68" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -9060,11 +9164,11 @@
       </c>
       <c r="L69" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M69" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -9093,11 +9197,11 @@
       </c>
       <c r="L70" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M70" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -9126,11 +9230,11 @@
       </c>
       <c r="L71" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M71" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -9159,11 +9263,11 @@
       </c>
       <c r="L72" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M72" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -9192,11 +9296,11 @@
       </c>
       <c r="L73" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M73" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -9225,11 +9329,11 @@
       </c>
       <c r="L74" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M74" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -9258,11 +9362,11 @@
       </c>
       <c r="L75" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M75" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -9291,11 +9395,11 @@
       </c>
       <c r="L76" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M76" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -9324,11 +9428,11 @@
       </c>
       <c r="L77" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M77" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -9357,11 +9461,11 @@
       </c>
       <c r="L78" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M78" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -9390,11 +9494,11 @@
       </c>
       <c r="L79" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M79" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -9423,11 +9527,11 @@
       </c>
       <c r="L80" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M80" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9456,11 +9560,11 @@
       </c>
       <c r="L81" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M81" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9489,11 +9593,11 @@
       </c>
       <c r="L82" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M82" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9522,11 +9626,11 @@
       </c>
       <c r="L83" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M83" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9555,11 +9659,11 @@
       </c>
       <c r="L84" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M84" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9588,11 +9692,11 @@
       </c>
       <c r="L85" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M85" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -9621,11 +9725,11 @@
       </c>
       <c r="L86" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M86" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -9654,11 +9758,11 @@
       </c>
       <c r="L87" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M87" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -9687,11 +9791,11 @@
       </c>
       <c r="L88" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M88" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -9720,11 +9824,11 @@
       </c>
       <c r="L89" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M89" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -9753,11 +9857,11 @@
       </c>
       <c r="L90" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M90" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -9786,11 +9890,11 @@
       </c>
       <c r="L91" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M91" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -9819,11 +9923,11 @@
       </c>
       <c r="L92" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M92" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -9852,11 +9956,11 @@
       </c>
       <c r="L93" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M93" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -9885,11 +9989,11 @@
       </c>
       <c r="L94" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M94" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -9918,11 +10022,11 @@
       </c>
       <c r="L95" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M95" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -9951,11 +10055,11 @@
       </c>
       <c r="L96" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M96" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -9984,11 +10088,11 @@
       </c>
       <c r="L97" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M97" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -10017,15 +10121,44 @@
       </c>
       <c r="L98" s="15">
         <f t="shared" si="18"/>
-        <v>10357.68</v>
+        <v>10991.880000000001</v>
       </c>
       <c r="M98" s="41">
         <f t="shared" si="19"/>
-        <v>5509.91</v>
+        <v>6144.11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
     <mergeCell ref="N56:O56"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="N58:O58"/>
@@ -10035,35 +10168,6 @@
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="36" operator="lessThan">

--- a/tecnica_analise/999XL.xlsx
+++ b/tecnica_analise/999XL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>MONTH</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>league one</t>
+  </si>
+  <si>
+    <t>over 1,5</t>
+  </si>
+  <si>
+    <t>premier league</t>
   </si>
 </sst>
 </file>
@@ -945,28 +951,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +979,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,22 +1026,13 @@
     <xf numFmtId="168" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,17 +1053,11 @@
     <xf numFmtId="168" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1838,11 +1844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="263231800"/>
-        <c:axId val="263950624"/>
+        <c:axId val="251791640"/>
+        <c:axId val="251793600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263231800"/>
+        <c:axId val="251791640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1891,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263950624"/>
+        <c:crossAx val="251793600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1893,7 +1899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263950624"/>
+        <c:axId val="251793600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1950,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263231800"/>
+        <c:crossAx val="251791640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2213,11 +2219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264036640"/>
-        <c:axId val="264037024"/>
+        <c:axId val="251792816"/>
+        <c:axId val="251791248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264036640"/>
+        <c:axId val="251792816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,12 +2276,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264037024"/>
+        <c:crossAx val="251791248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264037024"/>
+        <c:axId val="251791248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2335,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264036640"/>
+        <c:crossAx val="251792816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2578,11 +2584,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="263710536"/>
-        <c:axId val="263710920"/>
+        <c:axId val="301460928"/>
+        <c:axId val="301462888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263710536"/>
+        <c:axId val="301460928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2631,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263710920"/>
+        <c:crossAx val="301462888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2633,7 +2639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263710920"/>
+        <c:axId val="301462888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2690,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263710536"/>
+        <c:crossAx val="301460928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2938,11 +2944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="263741328"/>
-        <c:axId val="262486072"/>
+        <c:axId val="301460536"/>
+        <c:axId val="301462104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="263741328"/>
+        <c:axId val="301460536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,12 +3001,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262486072"/>
+        <c:crossAx val="301462104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262486072"/>
+        <c:axId val="301462104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3060,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263741328"/>
+        <c:crossAx val="301460536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5728,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5767,18 +5773,18 @@
     <row r="4" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="32">
         <f>COUNTIF(InvestmentSport!K:K,D4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="33">
         <f>SUMIF(InvestmentSport!K:K,D4,InvestmentSport!J:J)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F4" s="40">
         <f>E4/painel!B$17</f>
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5893,11 +5899,11 @@
       </c>
       <c r="E11" s="33">
         <f>SUMIF(InvestmentSport!K:K,D11,InvestmentSport!J:J)</f>
-        <v>95.199999999999989</v>
+        <v>-140</v>
       </c>
       <c r="F11" s="40">
         <f>E11/painel!B$17</f>
-        <v>9.5199999999999989E-3</v>
+        <v>-1.4E-2</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6407,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,23 +6685,22 @@
         <v>1.68</v>
       </c>
       <c r="I6" s="14">
-        <f t="shared" si="2"/>
-        <v>470.4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14">
         <f>IFERROR((I6-G6)/2, 0)</f>
-        <v>95.199999999999989</v>
+        <v>-140</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="4"/>
-        <v>10452.880000000001</v>
+        <v>10217.68</v>
       </c>
       <c r="M6" s="41">
         <f t="shared" si="5"/>
-        <v>5605.11</v>
+        <v>5369.91</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>66</v>
@@ -6742,11 +6747,11 @@
       </c>
       <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>10685.28</v>
+        <v>10450.08</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="5"/>
-        <v>5837.5099999999993</v>
+        <v>5602.3099999999995</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>66</v>
@@ -6781,23 +6786,22 @@
         <v>1.6</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="2"/>
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>-280</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="4"/>
-        <v>10853.28</v>
+        <v>10170.08</v>
       </c>
       <c r="M8" s="41">
         <f t="shared" si="5"/>
-        <v>6005.5099999999993</v>
+        <v>5322.3099999999995</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>67</v>
@@ -6844,11 +6848,11 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10308.68</v>
       </c>
       <c r="M9" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5460.91</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>66</v>
@@ -6866,27 +6870,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>45241</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1.6</v>
+      </c>
       <c r="I10" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J10" s="14">
         <f>IFERROR((I10-G10)/2, 0)</f>
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M10" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6917,11 +6934,11 @@
       </c>
       <c r="L11" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M11" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6952,11 +6969,11 @@
       </c>
       <c r="L12" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M12" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6987,11 +7004,11 @@
       </c>
       <c r="L13" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M13" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -7022,11 +7039,11 @@
       </c>
       <c r="L14" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M14" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7057,11 +7074,11 @@
       </c>
       <c r="L15" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M15" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -7092,18 +7109,18 @@
       </c>
       <c r="L16" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M16" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N16" s="78" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -7111,11 +7128,11 @@
       </c>
       <c r="B17" s="14">
         <f t="shared" si="7"/>
-        <v>634.20000000000005</v>
+        <v>26</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
-        <v>6.3420000000000004E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="D17" s="11"/>
       <c r="G17" s="14">
@@ -7133,20 +7150,20 @@
       </c>
       <c r="L17" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M17" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N17" s="53" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="71"/>
-      <c r="P17" s="72" t="s">
+      <c r="O17" s="73"/>
+      <c r="P17" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="55"/>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -7176,22 +7193,22 @@
       </c>
       <c r="L18" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M18" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N18" s="56">
+        <v>5535.91</v>
+      </c>
+      <c r="N18" s="61">
         <f>painel!B19</f>
         <v>10000</v>
       </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="75">
+      <c r="O18" s="75"/>
+      <c r="P18" s="77">
         <f>N18+SUM(J:J)</f>
-        <v>10991.88</v>
-      </c>
-      <c r="Q18" s="58"/>
+        <v>10383.68</v>
+      </c>
+      <c r="Q18" s="63"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -7221,16 +7238,16 @@
       </c>
       <c r="L19" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M19" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="64"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N19" s="67"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -7260,18 +7277,18 @@
       </c>
       <c r="L20" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M20" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N20" s="53" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N20" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -7301,19 +7318,19 @@
       </c>
       <c r="L21" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M21" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N21" s="56">
+        <v>5535.91</v>
+      </c>
+      <c r="N21" s="61">
         <f>SUM(P18-N18)</f>
-        <v>991.8799999999992</v>
-      </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
+        <v>383.68000000000029</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="63"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -7343,16 +7360,16 @@
       </c>
       <c r="L22" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M22" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
@@ -7382,16 +7399,16 @@
       </c>
       <c r="L23" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M23" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="64"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -7421,18 +7438,18 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M24" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N24" s="53" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N24" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -7462,18 +7479,18 @@
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M25" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N25" s="53" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
@@ -7503,19 +7520,19 @@
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M26" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N26" s="65">
+        <v>5535.91</v>
+      </c>
+      <c r="N26" s="55">
         <f>IFERROR(N21/N18, 0)</f>
-        <v>9.9187999999999915E-2</v>
-      </c>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="67"/>
+        <v>3.8368000000000027E-2</v>
+      </c>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="57"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -7545,16 +7562,16 @@
       </c>
       <c r="L27" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M27" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N27" s="68"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="70"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -7584,11 +7601,11 @@
       </c>
       <c r="L28" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M28" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
@@ -7623,18 +7640,18 @@
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M29" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N29" s="50" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N29" s="48" t="s">
         <v>41</v>
       </c>
       <c r="O29" s="51"/>
       <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -7664,16 +7681,16 @@
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M30" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N30" s="50" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N30" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="52"/>
+      <c r="O30" s="49"/>
       <c r="P30" s="20" t="s">
         <v>28</v>
       </c>
@@ -7709,16 +7726,16 @@
       </c>
       <c r="L31" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M31" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N31" s="45" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="46"/>
+      <c r="O31" s="47"/>
       <c r="P31" s="25">
         <v>4</v>
       </c>
@@ -7755,16 +7772,16 @@
       </c>
       <c r="L32" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M32" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N32" s="45" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="46"/>
+      <c r="O32" s="47"/>
       <c r="P32" s="25">
         <v>4</v>
       </c>
@@ -7801,16 +7818,16 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" si="4"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M33" s="41">
         <f t="shared" si="5"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N33" s="45" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N33" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="46"/>
+      <c r="O33" s="47"/>
       <c r="P33" s="25">
         <v>4</v>
       </c>
@@ -7847,16 +7864,16 @@
       </c>
       <c r="L34" s="15">
         <f t="shared" ref="L34:L65" si="12">L33+J34</f>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M34" s="41">
         <f t="shared" ref="M34:M65" si="13">M33+J34</f>
-        <v>6144.11</v>
-      </c>
-      <c r="N34" s="45" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="46"/>
+      <c r="O34" s="47"/>
       <c r="P34" s="25">
         <v>1.8</v>
       </c>
@@ -7893,16 +7910,16 @@
       </c>
       <c r="L35" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M35" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N35" s="45" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N35" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O35" s="46"/>
+      <c r="O35" s="47"/>
       <c r="P35" s="25">
         <v>2.8</v>
       </c>
@@ -7939,16 +7956,16 @@
       </c>
       <c r="L36" s="24">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M36" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N36" s="45" t="s">
+        <v>5535.91</v>
+      </c>
+      <c r="N36" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O36" s="47"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="22">
         <v>2.5</v>
       </c>
@@ -7985,14 +8002,14 @@
       </c>
       <c r="L37" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M37" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
     </row>
@@ -8024,14 +8041,14 @@
       </c>
       <c r="L38" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M38" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
     </row>
@@ -8062,16 +8079,16 @@
       </c>
       <c r="L39" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M39" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="55"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="54"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
@@ -8100,16 +8117,16 @@
       </c>
       <c r="L40" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M40" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N40" s="56"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="58"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N40" s="61"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="63"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -8138,16 +8155,16 @@
       </c>
       <c r="L41" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M41" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N41" s="62"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="64"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N41" s="67"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
@@ -8176,16 +8193,16 @@
       </c>
       <c r="L42" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M42" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="54"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -8214,16 +8231,16 @@
       </c>
       <c r="L43" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M43" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N43" s="56"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="58"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N43" s="61"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="63"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -8252,16 +8269,16 @@
       </c>
       <c r="L44" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M44" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="61"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="66"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -8290,16 +8307,16 @@
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M45" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N45" s="62"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="64"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N45" s="67"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="69"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -8328,16 +8345,16 @@
       </c>
       <c r="L46" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M46" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N46" s="53"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="54"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
@@ -8366,16 +8383,16 @@
       </c>
       <c r="L47" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M47" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N47" s="52"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="54"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -8404,16 +8421,16 @@
       </c>
       <c r="L48" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M48" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N48" s="65"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="67"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="57"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
@@ -8442,16 +8459,16 @@
       </c>
       <c r="L49" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M49" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N49" s="68"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="70"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="60"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -8480,11 +8497,11 @@
       </c>
       <c r="L50" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M50" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
@@ -8518,16 +8535,16 @@
       </c>
       <c r="L51" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M51" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N51" s="50"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N51" s="48"/>
       <c r="O51" s="51"/>
       <c r="P51" s="51"/>
-      <c r="Q51" s="52"/>
+      <c r="Q51" s="49"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
@@ -8556,14 +8573,14 @@
       </c>
       <c r="L52" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M52" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N52" s="50"/>
-      <c r="O52" s="52"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N52" s="48"/>
+      <c r="O52" s="49"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
     </row>
@@ -8594,14 +8611,14 @@
       </c>
       <c r="L53" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M53" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N53" s="45"/>
-      <c r="O53" s="46"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N53" s="46"/>
+      <c r="O53" s="47"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="23"/>
     </row>
@@ -8632,14 +8649,14 @@
       </c>
       <c r="L54" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M54" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="46"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N54" s="46"/>
+      <c r="O54" s="47"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="23"/>
     </row>
@@ -8670,14 +8687,14 @@
       </c>
       <c r="L55" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M55" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="46"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="47"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="23"/>
     </row>
@@ -8708,14 +8725,14 @@
       </c>
       <c r="L56" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M56" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="46"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N56" s="46"/>
+      <c r="O56" s="47"/>
       <c r="P56" s="22"/>
       <c r="Q56" s="23"/>
     </row>
@@ -8746,14 +8763,14 @@
       </c>
       <c r="L57" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M57" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N57" s="45"/>
-      <c r="O57" s="46"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N57" s="46"/>
+      <c r="O57" s="47"/>
       <c r="P57" s="22"/>
       <c r="Q57" s="23"/>
     </row>
@@ -8784,14 +8801,14 @@
       </c>
       <c r="L58" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M58" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N58" s="45"/>
-      <c r="O58" s="47"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N58" s="46"/>
+      <c r="O58" s="50"/>
       <c r="P58" s="22"/>
       <c r="Q58" s="23"/>
     </row>
@@ -8822,14 +8839,14 @@
       </c>
       <c r="L59" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M59" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
-      </c>
-      <c r="N59" s="48"/>
-      <c r="O59" s="49"/>
+        <v>5535.91</v>
+      </c>
+      <c r="N59" s="79"/>
+      <c r="O59" s="80"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="23"/>
     </row>
@@ -8860,11 +8877,11 @@
       </c>
       <c r="L60" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M60" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -8894,11 +8911,11 @@
       </c>
       <c r="L61" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M61" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -8928,11 +8945,11 @@
       </c>
       <c r="L62" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M62" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -8962,11 +8979,11 @@
       </c>
       <c r="L63" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M63" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -8996,11 +9013,11 @@
       </c>
       <c r="L64" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M64" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -9030,11 +9047,11 @@
       </c>
       <c r="L65" s="15">
         <f t="shared" si="12"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M65" s="41">
         <f t="shared" si="13"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -9064,11 +9081,11 @@
       </c>
       <c r="L66" s="15">
         <f t="shared" ref="L66:L98" si="18">L65+J66</f>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M66" s="41">
         <f t="shared" ref="M66:M98" si="19">M65+J66</f>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -9098,11 +9115,11 @@
       </c>
       <c r="L67" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M67" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -9131,11 +9148,11 @@
       </c>
       <c r="L68" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M68" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -9164,11 +9181,11 @@
       </c>
       <c r="L69" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M69" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -9197,11 +9214,11 @@
       </c>
       <c r="L70" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M70" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -9230,11 +9247,11 @@
       </c>
       <c r="L71" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M71" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -9263,11 +9280,11 @@
       </c>
       <c r="L72" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M72" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -9296,11 +9313,11 @@
       </c>
       <c r="L73" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M73" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -9329,11 +9346,11 @@
       </c>
       <c r="L74" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M74" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -9362,11 +9379,11 @@
       </c>
       <c r="L75" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M75" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -9395,11 +9412,11 @@
       </c>
       <c r="L76" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M76" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -9428,11 +9445,11 @@
       </c>
       <c r="L77" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M77" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -9461,11 +9478,11 @@
       </c>
       <c r="L78" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M78" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -9494,11 +9511,11 @@
       </c>
       <c r="L79" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M79" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -9527,11 +9544,11 @@
       </c>
       <c r="L80" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M80" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9560,11 +9577,11 @@
       </c>
       <c r="L81" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M81" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9593,11 +9610,11 @@
       </c>
       <c r="L82" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M82" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9626,11 +9643,11 @@
       </c>
       <c r="L83" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M83" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9659,11 +9676,11 @@
       </c>
       <c r="L84" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M84" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9692,11 +9709,11 @@
       </c>
       <c r="L85" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M85" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -9725,11 +9742,11 @@
       </c>
       <c r="L86" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M86" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -9758,11 +9775,11 @@
       </c>
       <c r="L87" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M87" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -9791,11 +9808,11 @@
       </c>
       <c r="L88" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M88" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -9824,11 +9841,11 @@
       </c>
       <c r="L89" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M89" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -9857,11 +9874,11 @@
       </c>
       <c r="L90" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M90" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -9890,11 +9907,11 @@
       </c>
       <c r="L91" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M91" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -9923,11 +9940,11 @@
       </c>
       <c r="L92" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M92" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -9956,11 +9973,11 @@
       </c>
       <c r="L93" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M93" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -9989,11 +10006,11 @@
       </c>
       <c r="L94" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M94" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -10022,11 +10039,11 @@
       </c>
       <c r="L95" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M95" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -10055,11 +10072,11 @@
       </c>
       <c r="L96" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M96" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -10088,11 +10105,11 @@
       </c>
       <c r="L97" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M97" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -10121,15 +10138,44 @@
       </c>
       <c r="L98" s="15">
         <f t="shared" si="18"/>
-        <v>10991.880000000001</v>
+        <v>10383.68</v>
       </c>
       <c r="M98" s="41">
         <f t="shared" si="19"/>
-        <v>6144.11</v>
+        <v>5535.91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q49"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N26:Q27"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N30:O30"/>
@@ -10139,35 +10185,6 @@
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N26:Q27"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q49"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C98">
     <cfRule type="cellIs" dxfId="23" priority="36" operator="lessThan">
